--- a/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ateuc\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87099C40-4DDA-4ACC-BCF4-DA6F9D2A072D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,12 +32,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+  <si>
+    <t xml:space="preserve">Aistleithner </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dusanic </t>
+  </si>
+  <si>
+    <t>Huber</t>
+  </si>
+  <si>
+    <t>Teuchtmann</t>
+  </si>
+  <si>
+    <t>Tomic</t>
+  </si>
+  <si>
+    <t>bisher investierte Stunden Gesamt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wochenverteilung </t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum </t>
+  </si>
+  <si>
+    <t>Gruppenstunden pro Woche geplant</t>
+  </si>
+  <si>
+    <t>Gruppenstunden pro Woche tatsächlich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wochenstunden einzeln </t>
+  </si>
+  <si>
+    <t>Aistleithner</t>
+  </si>
+  <si>
+    <t>Dusanic</t>
+  </si>
+  <si>
+    <t>Differenz</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -37,16 +97,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -54,14 +146,138 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -75,6 +291,1091 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Gesamtverteilung</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$A$3:$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Aistleithner </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dusanic </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Huber</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Teuchtmann</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tomic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$A$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E3C-4530-9C5F-8BD904943914}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F560239F-18FA-4CBB-B83B-E832D6AA06EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Tabelle1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="7">
+          <cell r="H7">
+            <v>1.75</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="H8">
+            <v>1.5</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="H9">
+            <v>2.75</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="H10">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="H46">
+            <v>9</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Tabelle1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="7">
+          <cell r="H7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="H8">
+            <v>1.5</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="H9">
+            <v>1.25</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="H46">
+            <v>3.75</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Tabelle1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="7">
+          <cell r="H7">
+            <v>1.5</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="H8">
+            <v>2.25</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="H46">
+            <v>3.75</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Tabelle1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="7">
+          <cell r="H7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="H8">
+            <v>1.75</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="H9">
+            <v>1.25</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="H10">
+            <v>1.5</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="H11">
+            <v>2.75</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="H12">
+            <v>1.75</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="H46">
+            <v>10</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Tabelle1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="7">
+          <cell r="H7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="H8">
+            <v>1.5</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="H9">
+            <v>1.25</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="H46">
+            <v>3.75</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -373,16 +1674,671 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I90" sqref="I90"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <f>[1]Tabelle1!$H$46</f>
+        <v>9</v>
+      </c>
+      <c r="B4" s="5">
+        <f>[2]Tabelle1!$H$46</f>
+        <v>3.75</v>
+      </c>
+      <c r="C4" s="5">
+        <f>[3]Tabelle1!$H$46</f>
+        <v>3.75</v>
+      </c>
+      <c r="D4" s="5">
+        <f>[4]Tabelle1!$H$46</f>
+        <v>10</v>
+      </c>
+      <c r="E4" s="5">
+        <f>[5]Tabelle1!$H$46</f>
+        <v>3.75</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>11</v>
+      </c>
+      <c r="B21" s="16">
+        <v>43171</v>
+      </c>
+      <c r="C21" s="16">
+        <v>43177</v>
+      </c>
+      <c r="D21" s="15">
+        <v>50</v>
+      </c>
+      <c r="E21" s="17">
+        <f>[1]Tabelle1!$H$7</f>
+        <v>1.75</v>
+      </c>
+      <c r="F21" s="17">
+        <f>[2]Tabelle1!$H$7</f>
+        <v>1</v>
+      </c>
+      <c r="G21" s="17">
+        <v>0</v>
+      </c>
+      <c r="H21" s="17">
+        <f>SUM([4]Tabelle1!$H$7:$H$9)</f>
+        <v>4</v>
+      </c>
+      <c r="I21" s="17">
+        <f>[5]Tabelle1!$H$7</f>
+        <v>1</v>
+      </c>
+      <c r="J21" s="17">
+        <f>SUM(E21:I21)</f>
+        <v>7.75</v>
+      </c>
+      <c r="K21" s="18">
+        <f>J21-D21</f>
+        <v>-42.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>12</v>
+      </c>
+      <c r="B22" s="16">
+        <f>B21+7</f>
+        <v>43178</v>
+      </c>
+      <c r="C22" s="16">
+        <f>C21+7</f>
+        <v>43184</v>
+      </c>
+      <c r="D22" s="15">
+        <v>50</v>
+      </c>
+      <c r="E22" s="17">
+        <f>SUM([1]Tabelle1!$H$8:$H$9)</f>
+        <v>4.25</v>
+      </c>
+      <c r="F22" s="17">
+        <f>SUM([2]Tabelle1!$H$8:$H$9)</f>
+        <v>2.75</v>
+      </c>
+      <c r="G22" s="17">
+        <f>SUM([3]Tabelle1!$H$7:$H$8)</f>
+        <v>3.75</v>
+      </c>
+      <c r="H22" s="17">
+        <f>SUM([4]Tabelle1!$H$10:$H$11)</f>
+        <v>4.25</v>
+      </c>
+      <c r="I22" s="17">
+        <f>SUM([5]Tabelle1!$H$8:$H$9)</f>
+        <v>2.75</v>
+      </c>
+      <c r="J22" s="17">
+        <f t="shared" ref="J22:J36" si="0">SUM(E22:I22)</f>
+        <v>17.75</v>
+      </c>
+      <c r="K22" s="18">
+        <f t="shared" ref="K22:K36" si="1">J22-D22</f>
+        <v>-32.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>13</v>
+      </c>
+      <c r="B23" s="16">
+        <f t="shared" ref="B23:B35" si="2">B22+7</f>
+        <v>43185</v>
+      </c>
+      <c r="C23" s="16">
+        <f t="shared" ref="C23:C35" si="3">C22+7</f>
+        <v>43191</v>
+      </c>
+      <c r="D23" s="15">
+        <v>50</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0</v>
+      </c>
+      <c r="F23" s="17">
+        <v>0</v>
+      </c>
+      <c r="G23" s="17">
+        <v>0</v>
+      </c>
+      <c r="H23" s="17">
+        <v>0</v>
+      </c>
+      <c r="I23" s="17">
+        <v>0</v>
+      </c>
+      <c r="J23" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="18">
+        <f t="shared" si="1"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>14</v>
+      </c>
+      <c r="B24" s="16">
+        <f t="shared" si="2"/>
+        <v>43192</v>
+      </c>
+      <c r="C24" s="16">
+        <f t="shared" si="3"/>
+        <v>43198</v>
+      </c>
+      <c r="D24" s="15">
+        <v>50</v>
+      </c>
+      <c r="E24" s="17">
+        <f>[1]Tabelle1!$H$10</f>
+        <v>3</v>
+      </c>
+      <c r="F24" s="17">
+        <v>0</v>
+      </c>
+      <c r="G24" s="17">
+        <v>0</v>
+      </c>
+      <c r="H24" s="17">
+        <f>[4]Tabelle1!$H$12</f>
+        <v>1.75</v>
+      </c>
+      <c r="I24" s="17">
+        <v>0</v>
+      </c>
+      <c r="J24" s="17">
+        <f t="shared" si="0"/>
+        <v>4.75</v>
+      </c>
+      <c r="K24" s="18">
+        <f t="shared" si="1"/>
+        <v>-45.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>15</v>
+      </c>
+      <c r="B25" s="16">
+        <f t="shared" si="2"/>
+        <v>43199</v>
+      </c>
+      <c r="C25" s="16">
+        <f t="shared" si="3"/>
+        <v>43205</v>
+      </c>
+      <c r="D25" s="15">
+        <v>50</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="18">
+        <f t="shared" si="1"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <v>16</v>
+      </c>
+      <c r="B26" s="16">
+        <f t="shared" si="2"/>
+        <v>43206</v>
+      </c>
+      <c r="C26" s="16">
+        <f t="shared" si="3"/>
+        <v>43212</v>
+      </c>
+      <c r="D26" s="15">
+        <v>50</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="18">
+        <f t="shared" si="1"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>17</v>
+      </c>
+      <c r="B27" s="16">
+        <f t="shared" si="2"/>
+        <v>43213</v>
+      </c>
+      <c r="C27" s="16">
+        <f t="shared" si="3"/>
+        <v>43219</v>
+      </c>
+      <c r="D27" s="15">
+        <v>50</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="18">
+        <f t="shared" si="1"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
+        <v>18</v>
+      </c>
+      <c r="B28" s="16">
+        <f t="shared" si="2"/>
+        <v>43220</v>
+      </c>
+      <c r="C28" s="16">
+        <f t="shared" si="3"/>
+        <v>43226</v>
+      </c>
+      <c r="D28" s="15">
+        <v>50</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="18">
+        <f t="shared" si="1"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
+        <v>19</v>
+      </c>
+      <c r="B29" s="16">
+        <f t="shared" si="2"/>
+        <v>43227</v>
+      </c>
+      <c r="C29" s="16">
+        <f t="shared" si="3"/>
+        <v>43233</v>
+      </c>
+      <c r="D29" s="15">
+        <v>50</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="18">
+        <f t="shared" si="1"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
+        <v>20</v>
+      </c>
+      <c r="B30" s="16">
+        <f t="shared" si="2"/>
+        <v>43234</v>
+      </c>
+      <c r="C30" s="16">
+        <f t="shared" si="3"/>
+        <v>43240</v>
+      </c>
+      <c r="D30" s="15">
+        <v>50</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="18">
+        <f t="shared" si="1"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
+        <v>21</v>
+      </c>
+      <c r="B31" s="16">
+        <f t="shared" si="2"/>
+        <v>43241</v>
+      </c>
+      <c r="C31" s="16">
+        <f t="shared" si="3"/>
+        <v>43247</v>
+      </c>
+      <c r="D31" s="15">
+        <v>50</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="18">
+        <f t="shared" si="1"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
+        <v>22</v>
+      </c>
+      <c r="B32" s="16">
+        <f t="shared" si="2"/>
+        <v>43248</v>
+      </c>
+      <c r="C32" s="16">
+        <f t="shared" si="3"/>
+        <v>43254</v>
+      </c>
+      <c r="D32" s="15">
+        <v>50</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="18">
+        <f t="shared" si="1"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="15">
+        <v>23</v>
+      </c>
+      <c r="B33" s="16">
+        <f t="shared" si="2"/>
+        <v>43255</v>
+      </c>
+      <c r="C33" s="16">
+        <f t="shared" si="3"/>
+        <v>43261</v>
+      </c>
+      <c r="D33" s="15">
+        <v>50</v>
+      </c>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="18">
+        <f t="shared" si="1"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
+        <v>24</v>
+      </c>
+      <c r="B34" s="16">
+        <f t="shared" si="2"/>
+        <v>43262</v>
+      </c>
+      <c r="C34" s="16">
+        <f t="shared" si="3"/>
+        <v>43268</v>
+      </c>
+      <c r="D34" s="15">
+        <v>50</v>
+      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="18">
+        <f t="shared" si="1"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="19">
+        <v>25</v>
+      </c>
+      <c r="B35" s="20">
+        <f t="shared" si="2"/>
+        <v>43269</v>
+      </c>
+      <c r="C35" s="20">
+        <f t="shared" si="3"/>
+        <v>43275</v>
+      </c>
+      <c r="D35" s="19">
+        <v>50</v>
+      </c>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="18">
+        <f t="shared" si="1"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="22">
+        <f>SUM(D21:D35)</f>
+        <v>750</v>
+      </c>
+      <c r="E36" s="23">
+        <f t="shared" ref="E36:J36" si="4">SUM(E21:E35)</f>
+        <v>9</v>
+      </c>
+      <c r="F36" s="23">
+        <f t="shared" si="4"/>
+        <v>3.75</v>
+      </c>
+      <c r="G36" s="23">
+        <f t="shared" si="4"/>
+        <v>3.75</v>
+      </c>
+      <c r="H36" s="23">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I36" s="23">
+        <f t="shared" si="4"/>
+        <v>3.75</v>
+      </c>
+      <c r="J36" s="23">
+        <f t="shared" si="4"/>
+        <v>30.25</v>
+      </c>
+      <c r="K36" s="23">
+        <f>SUM(K21:K35)</f>
+        <v>-719.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A18:K18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87099C40-4DDA-4ACC-BCF4-DA6F9D2A072D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F466F8-0C49-4EEC-9E1F-74222195EAAD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -219,35 +219,14 @@
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -273,6 +252,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -384,6 +384,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8FF4-4260-8ED8-B476C7AD57A7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -399,6 +404,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8FF4-4260-8ED8-B476C7AD57A7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -414,6 +424,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8FF4-4260-8ED8-B476C7AD57A7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -431,6 +446,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8FF4-4260-8ED8-B476C7AD57A7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -448,6 +468,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-8FF4-4260-8ED8-B476C7AD57A7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -479,19 +504,19 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.75</c:v>
+                  <c:v>25.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>13.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.75</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -596,7 +621,443 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$21:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-35DF-4E07-81EF-292A52182DEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$J$21:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-35DF-4E07-81EF-292A52182DEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="481776688"/>
+        <c:axId val="481771768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="481776688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481771768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="481771768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481776688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
@@ -1120,6 +1581,509 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1190,6 +2154,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>449035</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AEB81ED-2AA8-40DB-9E05-30DB11FA7698}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1221,9 +2221,19 @@
             <v>3</v>
           </cell>
         </row>
+        <row r="11">
+          <cell r="H11">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="H12">
+            <v>2</v>
+          </cell>
+        </row>
         <row r="46">
           <cell r="H46">
-            <v>9</v>
+            <v>12</v>
           </cell>
         </row>
       </sheetData>
@@ -1255,9 +2265,29 @@
             <v>1.25</v>
           </cell>
         </row>
+        <row r="10">
+          <cell r="H10">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="H11">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="H12">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="H13">
+            <v>5.75</v>
+          </cell>
+        </row>
         <row r="46">
           <cell r="H46">
-            <v>3.75</v>
+            <v>25.5</v>
           </cell>
         </row>
       </sheetData>
@@ -1333,9 +2363,19 @@
             <v>1.75</v>
           </cell>
         </row>
+        <row r="13">
+          <cell r="H13">
+            <v>1.75</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="H14">
+            <v>1.5</v>
+          </cell>
+        </row>
         <row r="46">
           <cell r="H46">
-            <v>10</v>
+            <v>13.25</v>
           </cell>
         </row>
       </sheetData>
@@ -1367,9 +2407,29 @@
             <v>1.25</v>
           </cell>
         </row>
+        <row r="10">
+          <cell r="H10">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="H11">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="H12">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="H13">
+            <v>5.75</v>
+          </cell>
+        </row>
         <row r="46">
           <cell r="H46">
-            <v>3.75</v>
+            <v>26.5</v>
           </cell>
         </row>
       </sheetData>
@@ -1677,8 +2737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1690,643 +2750,657 @@
     <col min="5" max="5" width="24.140625" customWidth="1"/>
     <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
     <col min="10" max="10" width="36.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="2">
         <f>[1]Tabelle1!$H$46</f>
-        <v>9</v>
-      </c>
-      <c r="B4" s="5">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2">
         <f>[2]Tabelle1!$H$46</f>
-        <v>3.75</v>
-      </c>
-      <c r="C4" s="5">
+        <v>25.5</v>
+      </c>
+      <c r="C4" s="2">
         <f>[3]Tabelle1!$H$46</f>
         <v>3.75</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <f>[4]Tabelle1!$H$46</f>
-        <v>10</v>
-      </c>
-      <c r="E4" s="5">
+        <v>13.25</v>
+      </c>
+      <c r="E4" s="2">
         <f>[5]Tabelle1!$H$46</f>
-        <v>3.75</v>
+        <v>26.5</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="4"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="23"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="7" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="13"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="19"/>
+      <c r="D20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="K20" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="A21" s="8">
         <v>11</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="9">
         <v>43171</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="9">
         <v>43177</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="8">
         <v>50</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="10">
         <f>[1]Tabelle1!$H$7</f>
         <v>1.75</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="10">
         <f>[2]Tabelle1!$H$7</f>
         <v>1</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="10">
         <v>0</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="10">
         <f>SUM([4]Tabelle1!$H$7:$H$9)</f>
         <v>4</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="10">
         <f>[5]Tabelle1!$H$7</f>
         <v>1</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="10">
         <f>SUM(E21:I21)</f>
         <v>7.75</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="11">
         <f>J21-D21</f>
         <v>-42.25</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+      <c r="A22" s="8">
         <v>12</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="9">
         <f>B21+7</f>
         <v>43178</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="9">
         <f>C21+7</f>
         <v>43184</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="8">
         <v>50</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="10">
         <f>SUM([1]Tabelle1!$H$8:$H$9)</f>
         <v>4.25</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="10">
         <f>SUM([2]Tabelle1!$H$8:$H$9)</f>
         <v>2.75</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="10">
         <f>SUM([3]Tabelle1!$H$7:$H$8)</f>
         <v>3.75</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="10">
         <f>SUM([4]Tabelle1!$H$10:$H$11)</f>
         <v>4.25</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="10">
         <f>SUM([5]Tabelle1!$H$8:$H$9)</f>
         <v>2.75</v>
       </c>
-      <c r="J22" s="17">
-        <f t="shared" ref="J22:J36" si="0">SUM(E22:I22)</f>
+      <c r="J22" s="10">
+        <f t="shared" ref="J22:J35" si="0">SUM(E22:I22)</f>
         <v>17.75</v>
       </c>
-      <c r="K22" s="18">
-        <f t="shared" ref="K22:K36" si="1">J22-D22</f>
+      <c r="K22" s="11">
+        <f t="shared" ref="K22:K35" si="1">J22-D22</f>
         <v>-32.25</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+      <c r="A23" s="8">
         <v>13</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="9">
         <f t="shared" ref="B23:B35" si="2">B22+7</f>
         <v>43185</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="9">
         <f t="shared" ref="C23:C35" si="3">C22+7</f>
         <v>43191</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="8">
         <v>50</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="10">
         <v>0</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="10">
         <v>0</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="10">
         <v>0</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="10"/>
+      <c r="I23" s="10">
         <v>0</v>
       </c>
-      <c r="I23" s="17">
-        <v>0</v>
-      </c>
-      <c r="J23" s="17">
+      <c r="J23" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K23" s="18">
+      <c r="K23" s="11">
         <f t="shared" si="1"/>
         <v>-50</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
+      <c r="A24" s="8">
         <v>14</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="9">
         <f t="shared" si="2"/>
         <v>43192</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="9">
         <f t="shared" si="3"/>
         <v>43198</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="8">
         <v>50</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="10">
         <f>[1]Tabelle1!$H$10</f>
         <v>3</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="10">
+        <f>[2]Tabelle1!$H$10</f>
+        <v>8</v>
+      </c>
+      <c r="G24" s="10">
         <v>0</v>
       </c>
-      <c r="G24" s="17">
-        <v>0</v>
-      </c>
-      <c r="H24" s="17">
+      <c r="H24" s="10">
         <f>[4]Tabelle1!$H$12</f>
         <v>1.75</v>
       </c>
-      <c r="I24" s="17">
-        <v>0</v>
-      </c>
-      <c r="J24" s="17">
+      <c r="I24" s="10">
+        <f>[5]Tabelle1!$H$10</f>
+        <v>8</v>
+      </c>
+      <c r="J24" s="10">
         <f t="shared" si="0"/>
-        <v>4.75</v>
-      </c>
-      <c r="K24" s="18">
+        <v>20.75</v>
+      </c>
+      <c r="K24" s="11">
         <f t="shared" si="1"/>
-        <v>-45.25</v>
+        <v>-29.25</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
+      <c r="A25" s="8">
         <v>15</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="9">
         <f t="shared" si="2"/>
         <v>43199</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="9">
         <f t="shared" si="3"/>
         <v>43205</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="8">
         <v>50</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17">
+      <c r="E25" s="10">
+        <f>SUM([1]Tabelle1!$H$11:$H$12)</f>
+        <v>3</v>
+      </c>
+      <c r="F25" s="10">
+        <f>SUM([2]Tabelle1!$H$11:$H$13)</f>
+        <v>13.75</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10">
+        <f>SUM([4]Tabelle1!$H$13:$H$14)</f>
+        <v>3.25</v>
+      </c>
+      <c r="I25" s="10">
+        <f>SUM([5]Tabelle1!$H$11:$H$13)</f>
+        <v>14.75</v>
+      </c>
+      <c r="J25" s="10">
+        <f t="shared" si="0"/>
+        <v>34.75</v>
+      </c>
+      <c r="K25" s="11">
+        <f t="shared" si="1"/>
+        <v>-15.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>16</v>
+      </c>
+      <c r="B26" s="9">
+        <f t="shared" si="2"/>
+        <v>43206</v>
+      </c>
+      <c r="C26" s="9">
+        <f t="shared" si="3"/>
+        <v>43212</v>
+      </c>
+      <c r="D26" s="8">
+        <v>50</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K26" s="11">
         <f t="shared" si="1"/>
         <v>-50</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
-        <v>16</v>
-      </c>
-      <c r="B26" s="16">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>17</v>
+      </c>
+      <c r="B27" s="9">
         <f t="shared" si="2"/>
-        <v>43206</v>
-      </c>
-      <c r="C26" s="16">
+        <v>43213</v>
+      </c>
+      <c r="C27" s="9">
         <f t="shared" si="3"/>
-        <v>43212</v>
-      </c>
-      <c r="D26" s="15">
+        <v>43219</v>
+      </c>
+      <c r="D27" s="8">
         <v>50</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17">
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K26" s="18">
+      <c r="K27" s="11">
         <f t="shared" si="1"/>
         <v>-50</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
-        <v>17</v>
-      </c>
-      <c r="B27" s="16">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>18</v>
+      </c>
+      <c r="B28" s="9">
         <f t="shared" si="2"/>
-        <v>43213</v>
-      </c>
-      <c r="C27" s="16">
+        <v>43220</v>
+      </c>
+      <c r="C28" s="9">
         <f t="shared" si="3"/>
-        <v>43219</v>
-      </c>
-      <c r="D27" s="15">
+        <v>43226</v>
+      </c>
+      <c r="D28" s="8">
         <v>50</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17">
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K27" s="18">
+      <c r="K28" s="11">
         <f t="shared" si="1"/>
         <v>-50</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
-        <v>18</v>
-      </c>
-      <c r="B28" s="16">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>19</v>
+      </c>
+      <c r="B29" s="9">
         <f t="shared" si="2"/>
-        <v>43220</v>
-      </c>
-      <c r="C28" s="16">
+        <v>43227</v>
+      </c>
+      <c r="C29" s="9">
         <f t="shared" si="3"/>
-        <v>43226</v>
-      </c>
-      <c r="D28" s="15">
+        <v>43233</v>
+      </c>
+      <c r="D29" s="8">
         <v>50</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17">
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K29" s="11">
         <f t="shared" si="1"/>
         <v>-50</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
-        <v>19</v>
-      </c>
-      <c r="B29" s="16">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>20</v>
+      </c>
+      <c r="B30" s="9">
         <f t="shared" si="2"/>
-        <v>43227</v>
-      </c>
-      <c r="C29" s="16">
+        <v>43234</v>
+      </c>
+      <c r="C30" s="9">
         <f t="shared" si="3"/>
-        <v>43233</v>
-      </c>
-      <c r="D29" s="15">
+        <v>43240</v>
+      </c>
+      <c r="D30" s="8">
         <v>50</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17">
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K29" s="18">
+      <c r="K30" s="11">
         <f t="shared" si="1"/>
         <v>-50</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
-        <v>20</v>
-      </c>
-      <c r="B30" s="16">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>21</v>
+      </c>
+      <c r="B31" s="9">
         <f t="shared" si="2"/>
-        <v>43234</v>
-      </c>
-      <c r="C30" s="16">
+        <v>43241</v>
+      </c>
+      <c r="C31" s="9">
         <f t="shared" si="3"/>
-        <v>43240</v>
-      </c>
-      <c r="D30" s="15">
+        <v>43247</v>
+      </c>
+      <c r="D31" s="8">
         <v>50</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17">
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K30" s="18">
+      <c r="K31" s="11">
         <f t="shared" si="1"/>
         <v>-50</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
-        <v>21</v>
-      </c>
-      <c r="B31" s="16">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>22</v>
+      </c>
+      <c r="B32" s="9">
         <f t="shared" si="2"/>
-        <v>43241</v>
-      </c>
-      <c r="C31" s="16">
+        <v>43248</v>
+      </c>
+      <c r="C32" s="9">
         <f t="shared" si="3"/>
-        <v>43247</v>
-      </c>
-      <c r="D31" s="15">
+        <v>43254</v>
+      </c>
+      <c r="D32" s="8">
         <v>50</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17">
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K31" s="18">
+      <c r="K32" s="11">
         <f t="shared" si="1"/>
         <v>-50</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
-        <v>22</v>
-      </c>
-      <c r="B32" s="16">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>23</v>
+      </c>
+      <c r="B33" s="9">
         <f t="shared" si="2"/>
-        <v>43248</v>
-      </c>
-      <c r="C32" s="16">
+        <v>43255</v>
+      </c>
+      <c r="C33" s="9">
         <f t="shared" si="3"/>
-        <v>43254</v>
-      </c>
-      <c r="D32" s="15">
+        <v>43261</v>
+      </c>
+      <c r="D33" s="8">
         <v>50</v>
       </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17">
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K32" s="18">
+      <c r="K33" s="11">
         <f t="shared" si="1"/>
         <v>-50</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="15">
-        <v>23</v>
-      </c>
-      <c r="B33" s="16">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>24</v>
+      </c>
+      <c r="B34" s="9">
         <f t="shared" si="2"/>
-        <v>43255</v>
-      </c>
-      <c r="C33" s="16">
+        <v>43262</v>
+      </c>
+      <c r="C34" s="9">
         <f t="shared" si="3"/>
-        <v>43261</v>
-      </c>
-      <c r="D33" s="15">
+        <v>43268</v>
+      </c>
+      <c r="D34" s="8">
         <v>50</v>
       </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17">
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K33" s="18">
+      <c r="K34" s="11">
         <f t="shared" si="1"/>
         <v>-50</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
-        <v>24</v>
-      </c>
-      <c r="B34" s="16">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>25</v>
+      </c>
+      <c r="B35" s="13">
         <f t="shared" si="2"/>
-        <v>43262</v>
-      </c>
-      <c r="C34" s="16">
+        <v>43269</v>
+      </c>
+      <c r="C35" s="13">
         <f t="shared" si="3"/>
-        <v>43268</v>
-      </c>
-      <c r="D34" s="15">
+        <v>43275</v>
+      </c>
+      <c r="D35" s="12">
         <v>50</v>
       </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17">
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K34" s="18">
+      <c r="K35" s="11">
         <f t="shared" si="1"/>
         <v>-50</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="19">
-        <v>25</v>
-      </c>
-      <c r="B35" s="20">
-        <f t="shared" si="2"/>
-        <v>43269</v>
-      </c>
-      <c r="C35" s="20">
-        <f t="shared" si="3"/>
-        <v>43275</v>
-      </c>
-      <c r="D35" s="19">
-        <v>50</v>
-      </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="18">
-        <f t="shared" si="1"/>
-        <v>-50</v>
-      </c>
-    </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="22">
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="15">
         <f>SUM(D21:D35)</f>
         <v>750</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="16">
         <f t="shared" ref="E36:J36" si="4">SUM(E21:E35)</f>
-        <v>9</v>
-      </c>
-      <c r="F36" s="23">
+        <v>12</v>
+      </c>
+      <c r="F36" s="16">
+        <f t="shared" si="4"/>
+        <v>25.5</v>
+      </c>
+      <c r="G36" s="16">
         <f t="shared" si="4"/>
         <v>3.75</v>
       </c>
-      <c r="G36" s="23">
+      <c r="H36" s="16">
         <f t="shared" si="4"/>
-        <v>3.75</v>
-      </c>
-      <c r="H36" s="23">
+        <v>13.25</v>
+      </c>
+      <c r="I36" s="16">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="I36" s="23">
+        <v>26.5</v>
+      </c>
+      <c r="J36" s="16">
         <f t="shared" si="4"/>
-        <v>3.75</v>
-      </c>
-      <c r="J36" s="23">
-        <f t="shared" si="4"/>
-        <v>30.25</v>
-      </c>
-      <c r="K36" s="23">
+        <v>81</v>
+      </c>
+      <c r="K36" s="16">
         <f>SUM(K21:K35)</f>
-        <v>-719.75</v>
+        <v>-669</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ateuc\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F466F8-0C49-4EEC-9E1F-74222195EAAD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t xml:space="preserve">Aistleithner </t>
   </si>
@@ -81,13 +80,37 @@
   <si>
     <t>Gesamt</t>
   </si>
+  <si>
+    <t>Beschreibungsstichworte:</t>
+  </si>
+  <si>
+    <t>Organisation (Allgemeines)</t>
+  </si>
+  <si>
+    <t>Programmierung</t>
+  </si>
+  <si>
+    <t>Planung</t>
+  </si>
+  <si>
+    <t>Source Code Repository</t>
+  </si>
+  <si>
+    <t>Qualität</t>
+  </si>
+  <si>
+    <t>Testen</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -214,12 +237,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -233,10 +256,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -245,13 +268,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -501,7 +524,7 @@
             <c:numRef>
               <c:f>Tabelle1!$A$4:$E$4</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
@@ -513,7 +536,7 @@
                   <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.25</c:v>
+                  <c:v>14.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>26.5</c:v>
@@ -579,6 +602,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -586,7 +610,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -762,7 +785,7 @@
             <c:numRef>
               <c:f>Tabelle1!$J$21:$J$35</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>7.75</c:v>
@@ -978,6 +1001,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -985,7 +1009,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2375,7 +2398,7 @@
         </row>
         <row r="46">
           <cell r="H46">
-            <v>13.25</v>
+            <v>14.25</v>
           </cell>
         </row>
       </sheetData>
@@ -2734,11 +2757,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2795,7 +2818,7 @@
       </c>
       <c r="D4" s="2">
         <f>[4]Tabelle1!$H$46</f>
-        <v>13.25</v>
+        <v>14.25</v>
       </c>
       <c r="E4" s="2">
         <f>[5]Tabelle1!$H$46</f>
@@ -3403,6 +3426,46 @@
         <v>-669</v>
       </c>
     </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A36:C36"/>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ateuc\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25FFE0D-BFB8-4A89-B9BB-9E1C45AF790E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -108,9 +109,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -237,12 +238,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -256,10 +257,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -268,13 +269,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -524,22 +525,22 @@
             <c:numRef>
               <c:f>Tabelle1!$A$4:$E$4</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.5</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.75</c:v>
+                  <c:v>5.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.25</c:v>
+                  <c:v>16.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.5</c:v>
+                  <c:v>28.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -602,7 +603,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -610,6 +610,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -698,6 +699,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>geplante Gruppenstunden/Woche</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent6"/>
@@ -771,6 +775,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>tatsächliche Gruppenstunde/Woche</c:v>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent5"/>
@@ -785,7 +792,7 @@
             <c:numRef>
               <c:f>Tabelle1!$J$21:$J$35</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>7.75</c:v>
@@ -800,7 +807,7 @@
                   <c:v>20.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.75</c:v>
+                  <c:v>45.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -861,6 +868,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1001,7 +1009,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1009,6 +1016,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2239,24 +2247,29 @@
             <v>2.75</v>
           </cell>
         </row>
-        <row r="10">
-          <cell r="H10">
-            <v>3</v>
-          </cell>
-        </row>
         <row r="11">
           <cell r="H11">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="12">
           <cell r="H12">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="H13">
             <v>2</v>
           </cell>
         </row>
-        <row r="46">
-          <cell r="H46">
-            <v>12</v>
+        <row r="14">
+          <cell r="H14">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="H47">
+            <v>14</v>
           </cell>
         </row>
       </sheetData>
@@ -2288,29 +2301,34 @@
             <v>1.25</v>
           </cell>
         </row>
-        <row r="10">
-          <cell r="H10">
-            <v>8</v>
-          </cell>
-        </row>
         <row r="11">
           <cell r="H11">
-            <v>5</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="12">
           <cell r="H12">
-            <v>3</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="13">
           <cell r="H13">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="H14">
             <v>5.75</v>
           </cell>
         </row>
-        <row r="46">
-          <cell r="H46">
-            <v>25.5</v>
+        <row r="15">
+          <cell r="H15">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="H47">
+            <v>27.5</v>
           </cell>
         </row>
       </sheetData>
@@ -2327,19 +2345,24 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="7">
-          <cell r="H7">
-            <v>1.5</v>
-          </cell>
-        </row>
         <row r="8">
           <cell r="H8">
+            <v>1.5</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="H9">
             <v>2.25</v>
           </cell>
         </row>
-        <row r="46">
-          <cell r="H46">
-            <v>3.75</v>
+        <row r="12">
+          <cell r="H12">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="H47">
+            <v>5.75</v>
           </cell>
         </row>
       </sheetData>
@@ -2381,11 +2404,6 @@
             <v>2.75</v>
           </cell>
         </row>
-        <row r="12">
-          <cell r="H12">
-            <v>1.75</v>
-          </cell>
-        </row>
         <row r="13">
           <cell r="H13">
             <v>1.75</v>
@@ -2393,12 +2411,27 @@
         </row>
         <row r="14">
           <cell r="H14">
+            <v>1.75</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="H15">
             <v>1.5</v>
           </cell>
         </row>
-        <row r="46">
-          <cell r="H46">
-            <v>14.25</v>
+        <row r="16">
+          <cell r="H16">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="H17">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="H47">
+            <v>16.25</v>
           </cell>
         </row>
       </sheetData>
@@ -2430,29 +2463,34 @@
             <v>1.25</v>
           </cell>
         </row>
-        <row r="10">
-          <cell r="H10">
-            <v>8</v>
-          </cell>
-        </row>
         <row r="11">
           <cell r="H11">
-            <v>5</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="12">
           <cell r="H12">
-            <v>4</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="13">
           <cell r="H13">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="H14">
             <v>5.75</v>
           </cell>
         </row>
-        <row r="46">
-          <cell r="H46">
-            <v>26.5</v>
+        <row r="15">
+          <cell r="H15">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="H47">
+            <v>28.5</v>
           </cell>
         </row>
       </sheetData>
@@ -2757,11 +2795,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="F14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X35" sqref="X35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2805,24 +2843,24 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <f>[1]Tabelle1!$H$46</f>
-        <v>12</v>
+        <f>[1]Tabelle1!$H$47</f>
+        <v>14</v>
       </c>
       <c r="B4" s="2">
-        <f>[2]Tabelle1!$H$46</f>
-        <v>25.5</v>
+        <f>[2]Tabelle1!$H$47</f>
+        <v>27.5</v>
       </c>
       <c r="C4" s="2">
-        <f>[3]Tabelle1!$H$46</f>
-        <v>3.75</v>
+        <f>[3]Tabelle1!$H$47</f>
+        <v>5.75</v>
       </c>
       <c r="D4" s="2">
-        <f>[4]Tabelle1!$H$46</f>
-        <v>14.25</v>
+        <f>[4]Tabelle1!$H$47</f>
+        <v>16.25</v>
       </c>
       <c r="E4" s="2">
-        <f>[5]Tabelle1!$H$46</f>
-        <v>26.5</v>
+        <f>[5]Tabelle1!$H$47</f>
+        <v>28.5</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -2954,7 +2992,7 @@
         <v>2.75</v>
       </c>
       <c r="G22" s="10">
-        <f>SUM([3]Tabelle1!$H$7:$H$8)</f>
+        <f>SUM([3]Tabelle1!$H$8:$H$9)</f>
         <v>3.75</v>
       </c>
       <c r="H22" s="10">
@@ -3027,22 +3065,22 @@
         <v>50</v>
       </c>
       <c r="E24" s="10">
-        <f>[1]Tabelle1!$H$10</f>
+        <f>[1]Tabelle1!$H$11</f>
         <v>3</v>
       </c>
       <c r="F24" s="10">
-        <f>[2]Tabelle1!$H$10</f>
+        <f>[2]Tabelle1!$H$11</f>
         <v>8</v>
       </c>
       <c r="G24" s="10">
         <v>0</v>
       </c>
       <c r="H24" s="10">
-        <f>[4]Tabelle1!$H$12</f>
+        <f>[4]Tabelle1!$H$13</f>
         <v>1.75</v>
       </c>
       <c r="I24" s="10">
-        <f>[5]Tabelle1!$H$10</f>
+        <f>[5]Tabelle1!$H$11</f>
         <v>8</v>
       </c>
       <c r="J24" s="10">
@@ -3070,31 +3108,32 @@
         <v>50</v>
       </c>
       <c r="E25" s="10">
-        <f>SUM([1]Tabelle1!$H$11:$H$12)</f>
-        <v>3</v>
+        <f>SUM([1]Tabelle1!$H$12:$H$14)</f>
+        <v>5</v>
       </c>
       <c r="F25" s="10">
-        <f>SUM([2]Tabelle1!$H$11:$H$13)</f>
-        <v>13.75</v>
+        <f>SUM([2]Tabelle1!$H$12:$H$15)</f>
+        <v>15.75</v>
       </c>
       <c r="G25" s="10">
-        <v>0</v>
+        <f>SUM([3]Tabelle1!$H$12)</f>
+        <v>2</v>
       </c>
       <c r="H25" s="10">
-        <f>SUM([4]Tabelle1!$H$13:$H$14)</f>
-        <v>3.25</v>
+        <f>SUM([4]Tabelle1!$H$14:$H$17)</f>
+        <v>6.25</v>
       </c>
       <c r="I25" s="10">
-        <f>SUM([5]Tabelle1!$H$11:$H$13)</f>
-        <v>14.75</v>
+        <f>SUM([5]Tabelle1!$H$12:$H$15)</f>
+        <v>16.75</v>
       </c>
       <c r="J25" s="10">
         <f t="shared" si="0"/>
-        <v>34.75</v>
+        <v>45.75</v>
       </c>
       <c r="K25" s="11">
         <f t="shared" si="1"/>
-        <v>-15.25</v>
+        <v>-4.25</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -3399,31 +3438,31 @@
       </c>
       <c r="E36" s="16">
         <f t="shared" ref="E36:J36" si="4">SUM(E21:E35)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F36" s="16">
         <f t="shared" si="4"/>
-        <v>25.5</v>
+        <v>27.5</v>
       </c>
       <c r="G36" s="16">
         <f t="shared" si="4"/>
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="H36" s="16">
         <f t="shared" si="4"/>
-        <v>13.25</v>
+        <v>16.25</v>
       </c>
       <c r="I36" s="16">
         <f t="shared" si="4"/>
-        <v>26.5</v>
+        <v>28.5</v>
       </c>
       <c r="J36" s="16">
         <f t="shared" si="4"/>
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K36" s="16">
         <f>SUM(K21:K35)</f>
-        <v>-669</v>
+        <v>-658</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25FFE0D-BFB8-4A89-B9BB-9E1C45AF790E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109C1ADA-AF37-46FE-829E-EC09F1DF24D8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,7 +528,7 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>27.5</c:v>
@@ -807,7 +807,7 @@
                   <c:v>20.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.75</c:v>
+                  <c:v>53.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2267,9 +2267,24 @@
             <v>2</v>
           </cell>
         </row>
+        <row r="15">
+          <cell r="H15">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="H16">
+            <v>3.75</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="H17">
+            <v>2.25</v>
+          </cell>
+        </row>
         <row r="47">
           <cell r="H47">
-            <v>14</v>
+            <v>22</v>
           </cell>
         </row>
       </sheetData>
@@ -2798,8 +2813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X35" sqref="X35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2844,7 +2859,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>[1]Tabelle1!$H$47</f>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2">
         <f>[2]Tabelle1!$H$47</f>
@@ -3108,8 +3123,8 @@
         <v>50</v>
       </c>
       <c r="E25" s="10">
-        <f>SUM([1]Tabelle1!$H$12:$H$14)</f>
-        <v>5</v>
+        <f>SUM([1]Tabelle1!$H$12:$H$17)</f>
+        <v>13</v>
       </c>
       <c r="F25" s="10">
         <f>SUM([2]Tabelle1!$H$12:$H$15)</f>
@@ -3129,11 +3144,11 @@
       </c>
       <c r="J25" s="10">
         <f t="shared" si="0"/>
-        <v>45.75</v>
+        <v>53.75</v>
       </c>
       <c r="K25" s="11">
         <f t="shared" si="1"/>
-        <v>-4.25</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -3438,7 +3453,7 @@
       </c>
       <c r="E36" s="16">
         <f t="shared" ref="E36:J36" si="4">SUM(E21:E35)</f>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F36" s="16">
         <f t="shared" si="4"/>
@@ -3458,11 +3473,11 @@
       </c>
       <c r="J36" s="16">
         <f t="shared" si="4"/>
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K36" s="16">
         <f>SUM(K21:K35)</f>
-        <v>-658</v>
+        <v>-650</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109C1ADA-AF37-46FE-829E-EC09F1DF24D8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0907EE5E-6CE7-4658-81C5-E461B6F91062}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,19 +528,19 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.5</c:v>
+                  <c:v>30.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.75</c:v>
+                  <c:v>8.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.25</c:v>
+                  <c:v>19.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.5</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2284,7 +2284,7 @@
         </row>
         <row r="47">
           <cell r="H47">
-            <v>22</v>
+            <v>26</v>
           </cell>
         </row>
       </sheetData>
@@ -2343,7 +2343,7 @@
         </row>
         <row r="47">
           <cell r="H47">
-            <v>27.5</v>
+            <v>30.5</v>
           </cell>
         </row>
       </sheetData>
@@ -2377,7 +2377,7 @@
         </row>
         <row r="47">
           <cell r="H47">
-            <v>5.75</v>
+            <v>8.75</v>
           </cell>
         </row>
       </sheetData>
@@ -2446,7 +2446,7 @@
         </row>
         <row r="47">
           <cell r="H47">
-            <v>16.25</v>
+            <v>19.25</v>
           </cell>
         </row>
       </sheetData>
@@ -2505,7 +2505,7 @@
         </row>
         <row r="47">
           <cell r="H47">
-            <v>28.5</v>
+            <v>33.5</v>
           </cell>
         </row>
       </sheetData>
@@ -2813,24 +2813,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" customWidth="1"/>
     <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="36.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
@@ -2839,7 +2839,7 @@
       <c r="D2" s="18"/>
       <c r="E2" s="23"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2856,30 +2856,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f>[1]Tabelle1!$H$47</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2">
         <f>[2]Tabelle1!$H$47</f>
-        <v>27.5</v>
+        <v>30.5</v>
       </c>
       <c r="C4" s="2">
         <f>[3]Tabelle1!$H$47</f>
-        <v>5.75</v>
+        <v>8.75</v>
       </c>
       <c r="D4" s="2">
         <f>[4]Tabelle1!$H$47</f>
-        <v>16.25</v>
+        <v>19.25</v>
       </c>
       <c r="E4" s="2">
         <f>[5]Tabelle1!$H$47</f>
-        <v>28.5</v>
+        <v>33.5</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>6</v>
       </c>
@@ -2894,7 +2894,7 @@
       <c r="J18" s="18"/>
       <c r="K18" s="23"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -2909,7 +2909,7 @@
       <c r="J19" s="6"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>11</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>-42.25</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>12</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>-32.25</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>13</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>14</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>-29.25</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>15</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>16</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>17</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>18</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>19</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>20</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>21</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>22</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>23</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>24</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>25</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>15</v>
       </c>
@@ -3480,42 +3480,42 @@
         <v>-650</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>23</v>
       </c>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0907EE5E-6CE7-4658-81C5-E461B6F91062}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55754044-9944-449B-99BF-50622F999BA4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -807,7 +807,7 @@
                   <c:v>20.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53.75</c:v>
+                  <c:v>71.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2252,36 +2252,6 @@
             <v>3</v>
           </cell>
         </row>
-        <row r="12">
-          <cell r="H12">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="H13">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="H14">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="H15">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="H16">
-            <v>3.75</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="H17">
-            <v>2.25</v>
-          </cell>
-        </row>
         <row r="47">
           <cell r="H47">
             <v>26</v>
@@ -2321,26 +2291,6 @@
             <v>8</v>
           </cell>
         </row>
-        <row r="12">
-          <cell r="H12">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="H13">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="H14">
-            <v>5.75</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="H15">
-            <v>2</v>
-          </cell>
-        </row>
         <row r="47">
           <cell r="H47">
             <v>30.5</v>
@@ -2368,11 +2318,6 @@
         <row r="9">
           <cell r="H9">
             <v>2.25</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="H12">
-            <v>2</v>
           </cell>
         </row>
         <row r="47">
@@ -2424,26 +2369,6 @@
             <v>1.75</v>
           </cell>
         </row>
-        <row r="14">
-          <cell r="H14">
-            <v>1.75</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="H15">
-            <v>1.5</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="H16">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="H17">
-            <v>2</v>
-          </cell>
-        </row>
         <row r="47">
           <cell r="H47">
             <v>19.25</v>
@@ -2481,26 +2406,6 @@
         <row r="11">
           <cell r="H11">
             <v>8</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="H12">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="H13">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="H14">
-            <v>5.75</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="H15">
-            <v>2</v>
           </cell>
         </row>
         <row r="47">
@@ -2813,8 +2718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3123,32 +3028,27 @@
         <v>50</v>
       </c>
       <c r="E25" s="10">
-        <f>SUM([1]Tabelle1!$H$12:$H$17)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F25" s="10">
-        <f>SUM([2]Tabelle1!$H$12:$H$15)</f>
-        <v>15.75</v>
+        <v>18.75</v>
       </c>
       <c r="G25" s="10">
-        <f>SUM([3]Tabelle1!$H$12)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H25" s="10">
-        <f>SUM([4]Tabelle1!$H$14:$H$17)</f>
-        <v>6.25</v>
+        <v>9.25</v>
       </c>
       <c r="I25" s="10">
-        <f>SUM([5]Tabelle1!$H$12:$H$15)</f>
-        <v>16.75</v>
+        <v>21.75</v>
       </c>
       <c r="J25" s="10">
         <f t="shared" si="0"/>
-        <v>53.75</v>
+        <v>71.75</v>
       </c>
       <c r="K25" s="11">
         <f t="shared" si="1"/>
-        <v>3.75</v>
+        <v>21.75</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -3452,32 +3352,32 @@
         <v>750</v>
       </c>
       <c r="E36" s="16">
-        <f t="shared" ref="E36:J36" si="4">SUM(E21:E35)</f>
-        <v>22</v>
+        <f>SUM(E21:E35)</f>
+        <v>26</v>
       </c>
       <c r="F36" s="16">
-        <f t="shared" si="4"/>
-        <v>27.5</v>
+        <f t="shared" ref="E36:J36" si="4">SUM(F21:F35)</f>
+        <v>30.5</v>
       </c>
       <c r="G36" s="16">
         <f t="shared" si="4"/>
-        <v>5.75</v>
+        <v>8.75</v>
       </c>
       <c r="H36" s="16">
         <f t="shared" si="4"/>
-        <v>16.25</v>
+        <v>19.25</v>
       </c>
       <c r="I36" s="16">
         <f t="shared" si="4"/>
-        <v>28.5</v>
+        <v>33.5</v>
       </c>
       <c r="J36" s="16">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="K36" s="16">
         <f>SUM(K21:K35)</f>
-        <v>-650</v>
+        <v>-632</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55754044-9944-449B-99BF-50622F999BA4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA7EBFC-1171-4F28-BC50-2A88B6A36C18}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,7 +528,7 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>29.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30.5</c:v>
@@ -2254,7 +2254,7 @@
         </row>
         <row r="47">
           <cell r="H47">
-            <v>26</v>
+            <v>29.5</v>
           </cell>
         </row>
       </sheetData>
@@ -2718,24 +2718,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="35.88671875" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
     <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
-    <col min="10" max="10" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
@@ -2744,7 +2744,7 @@
       <c r="D2" s="18"/>
       <c r="E2" s="23"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2761,10 +2761,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>[1]Tabelle1!$H$47</f>
-        <v>26</v>
+        <v>29.5</v>
       </c>
       <c r="B4" s="2">
         <f>[2]Tabelle1!$H$47</f>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>6</v>
       </c>
@@ -2799,7 +2799,7 @@
       <c r="J18" s="18"/>
       <c r="K18" s="23"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -2814,7 +2814,7 @@
       <c r="J19" s="6"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>11</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>-42.25</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>12</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>-32.25</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>13</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>14</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>-29.25</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>15</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>16</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>17</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>18</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>19</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>20</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>21</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>22</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>23</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>24</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>25</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>15</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>26</v>
       </c>
       <c r="F36" s="16">
-        <f t="shared" ref="E36:J36" si="4">SUM(F21:F35)</f>
+        <f t="shared" ref="F36:J36" si="4">SUM(F21:F35)</f>
         <v>30.5</v>
       </c>
       <c r="G36" s="16">
@@ -3380,42 +3380,42 @@
         <v>-632</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>23</v>
       </c>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA7EBFC-1171-4F28-BC50-2A88B6A36C18}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E319495-C269-4CB8-A73A-123D589DAA65}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,19 +528,19 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>29.5</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.5</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.75</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.25</c:v>
+                  <c:v>23.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.5</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -807,7 +807,7 @@
                   <c:v>20.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71.75</c:v>
+                  <c:v>73.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2252,9 +2252,44 @@
             <v>3</v>
           </cell>
         </row>
+        <row r="12">
+          <cell r="H12">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="H13">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="H14">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="H15">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="H16">
+            <v>3.75</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="H17">
+            <v>3.25</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="H18">
+            <v>3</v>
+          </cell>
+        </row>
         <row r="47">
           <cell r="H47">
-            <v>29.5</v>
+            <v>32</v>
           </cell>
         </row>
       </sheetData>
@@ -2291,9 +2326,34 @@
             <v>8</v>
           </cell>
         </row>
+        <row r="12">
+          <cell r="H12">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="H13">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="H14">
+            <v>5.75</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="H15">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="H16">
+            <v>3</v>
+          </cell>
+        </row>
         <row r="47">
           <cell r="H47">
-            <v>30.5</v>
+            <v>33</v>
           </cell>
         </row>
       </sheetData>
@@ -2320,9 +2380,19 @@
             <v>2.25</v>
           </cell>
         </row>
+        <row r="12">
+          <cell r="H12">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="H13">
+            <v>3</v>
+          </cell>
+        </row>
         <row r="47">
           <cell r="H47">
-            <v>8.75</v>
+            <v>11.25</v>
           </cell>
         </row>
       </sheetData>
@@ -2369,9 +2439,39 @@
             <v>1.75</v>
           </cell>
         </row>
+        <row r="14">
+          <cell r="H14">
+            <v>1.75</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="H15">
+            <v>1.5</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="H16">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="H17">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="H18">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="H19">
+            <v>2</v>
+          </cell>
+        </row>
         <row r="47">
           <cell r="H47">
-            <v>19.25</v>
+            <v>23.75</v>
           </cell>
         </row>
       </sheetData>
@@ -2408,9 +2508,39 @@
             <v>8</v>
           </cell>
         </row>
+        <row r="12">
+          <cell r="H12">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="H13">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="H14">
+            <v>5.75</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="H15">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="H16">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="H17">
+            <v>1</v>
+          </cell>
+        </row>
         <row r="47">
           <cell r="H47">
-            <v>33.5</v>
+            <v>36</v>
           </cell>
         </row>
       </sheetData>
@@ -2718,8 +2848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2764,23 +2894,23 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>[1]Tabelle1!$H$47</f>
-        <v>29.5</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2">
         <f>[2]Tabelle1!$H$47</f>
-        <v>30.5</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2">
         <f>[3]Tabelle1!$H$47</f>
-        <v>8.75</v>
+        <v>11.25</v>
       </c>
       <c r="D4" s="2">
         <f>[4]Tabelle1!$H$47</f>
-        <v>19.25</v>
+        <v>23.75</v>
       </c>
       <c r="E4" s="2">
         <f>[5]Tabelle1!$H$47</f>
-        <v>33.5</v>
+        <v>36</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -3028,27 +3158,32 @@
         <v>50</v>
       </c>
       <c r="E25" s="10">
+        <f>SUM([1]Tabelle1!$H$12:$H$18)</f>
         <v>17</v>
       </c>
       <c r="F25" s="10">
+        <f>SUM([2]Tabelle1!$H$12:$H$16)</f>
         <v>18.75</v>
       </c>
       <c r="G25" s="10">
+        <f>SUM([3]Tabelle1!$H$12:$H$13)</f>
         <v>5</v>
       </c>
       <c r="H25" s="10">
-        <v>9.25</v>
+        <f>SUM([4]Tabelle1!$H$14:$H$19)</f>
+        <v>11.25</v>
       </c>
       <c r="I25" s="10">
+        <f>SUM([5]Tabelle1!$H$12:$H$17)</f>
         <v>21.75</v>
       </c>
       <c r="J25" s="10">
-        <f t="shared" si="0"/>
-        <v>71.75</v>
+        <f>SUM(E25:I25)</f>
+        <v>73.75</v>
       </c>
       <c r="K25" s="11">
         <f t="shared" si="1"/>
-        <v>21.75</v>
+        <v>23.75</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -3365,7 +3500,7 @@
       </c>
       <c r="H36" s="16">
         <f t="shared" si="4"/>
-        <v>19.25</v>
+        <v>21.25</v>
       </c>
       <c r="I36" s="16">
         <f t="shared" si="4"/>
@@ -3373,11 +3508,11 @@
       </c>
       <c r="J36" s="16">
         <f t="shared" si="4"/>
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K36" s="16">
         <f>SUM(K21:K35)</f>
-        <v>-632</v>
+        <v>-630</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0062277F-B0A0-4B53-9F08-5519AE6DCDEA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13950" yWindow="0" windowWidth="28800" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -112,9 +111,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -261,11 +260,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -276,10 +275,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -288,13 +287,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -309,7 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -353,7 +352,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -392,6 +391,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -443,7 +443,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-8FF4-4260-8ED8-B476C7AD57A7}"/>
               </c:ext>
@@ -463,7 +463,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-8FF4-4260-8ED8-B476C7AD57A7}"/>
               </c:ext>
@@ -483,7 +483,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-8FF4-4260-8ED8-B476C7AD57A7}"/>
               </c:ext>
@@ -505,7 +505,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-8FF4-4260-8ED8-B476C7AD57A7}"/>
               </c:ext>
@@ -527,7 +527,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-8FF4-4260-8ED8-B476C7AD57A7}"/>
               </c:ext>
@@ -560,27 +560,27 @@
             <c:numRef>
               <c:f>Zeiterfassung_Gesamt!$A$4:$E$4</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>86.5</c:v>
+                  <c:v>96.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87.75</c:v>
+                  <c:v>90.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.25</c:v>
+                  <c:v>47.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53.75</c:v>
+                  <c:v>66.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.75</c:v>
+                  <c:v>92.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5E3C-4530-9C5F-8BD904943914}"/>
             </c:ext>
@@ -607,6 +607,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -638,14 +639,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -681,7 +682,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -725,6 +726,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -831,7 +833,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-35DF-4E07-81EF-292A52182DEB}"/>
             </c:ext>
@@ -857,7 +859,7 @@
             <c:numRef>
               <c:f>Zeiterfassung_Gesamt!$J$26:$J$40</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>7.75</c:v>
@@ -887,10 +889,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>82</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>62.5</c:v>
+                  <c:v>101.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -907,7 +909,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-35DF-4E07-81EF-292A52182DEB}"/>
             </c:ext>
@@ -923,11 +925,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1521154192"/>
-        <c:axId val="1521148208"/>
+        <c:axId val="342508080"/>
+        <c:axId val="342509168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1521154192"/>
+        <c:axId val="342508080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -970,7 +972,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1521148208"/>
+        <c:crossAx val="342509168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -978,7 +980,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1521148208"/>
+        <c:axId val="342509168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1029,7 +1031,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1521154192"/>
+        <c:crossAx val="342508080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1043,6 +1045,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1074,14 +1077,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2232,7 +2235,7 @@
         <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F560239F-18FA-4CBB-B83B-E832D6AA06EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F560239F-18FA-4CBB-B83B-E832D6AA06EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2268,7 +2271,7 @@
         <xdr:cNvPr id="4" name="Diagramm 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AEB81ED-2AA8-40DB-9E05-30DB11FA7698}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3AEB81ED-2AA8-40DB-9E05-30DB11FA7698}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2539,42 +2542,42 @@
         </row>
         <row r="37">
           <cell r="G37">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="H37">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="38">
           <cell r="G38">
-            <v>0</v>
+            <v>3.5</v>
           </cell>
           <cell r="H38">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="39">
           <cell r="G39">
-            <v>0</v>
+            <v>1.5</v>
           </cell>
           <cell r="H39">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="40">
           <cell r="G40">
-            <v>0</v>
+            <v>1.5</v>
           </cell>
           <cell r="H40">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="41">
           <cell r="G41">
-            <v>0</v>
+            <v>1.5</v>
           </cell>
           <cell r="H41">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="42">
@@ -2801,18 +2804,18 @@
         </row>
         <row r="29">
           <cell r="G29">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H29">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="30">
           <cell r="G30">
-            <v>0</v>
+            <v>1.5</v>
           </cell>
           <cell r="H30">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="31">
@@ -2929,7 +2932,7 @@
         </row>
         <row r="45">
           <cell r="G45">
-            <v>87.75</v>
+            <v>90.25</v>
           </cell>
         </row>
       </sheetData>
@@ -3076,34 +3079,34 @@
         </row>
         <row r="23">
           <cell r="G23">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="H23">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="24">
           <cell r="G24">
-            <v>0</v>
+            <v>4.5</v>
           </cell>
           <cell r="H24">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="25">
           <cell r="G25">
-            <v>0</v>
+            <v>5.5</v>
           </cell>
           <cell r="H25">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="26">
           <cell r="G26">
-            <v>0</v>
+            <v>1.5</v>
           </cell>
           <cell r="H26">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="27">
@@ -3244,7 +3247,7 @@
         </row>
         <row r="44">
           <cell r="G44">
-            <v>34.25</v>
+            <v>47.75</v>
           </cell>
         </row>
       </sheetData>
@@ -3439,7 +3442,7 @@
         </row>
         <row r="29">
           <cell r="G29">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="H29">
             <v>20</v>
@@ -3455,34 +3458,34 @@
         </row>
         <row r="31">
           <cell r="G31">
-            <v>0</v>
+            <v>3</v>
           </cell>
           <cell r="H31">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="32">
           <cell r="G32">
-            <v>0</v>
+            <v>3.5</v>
           </cell>
           <cell r="H32">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="33">
           <cell r="G33">
-            <v>0</v>
+            <v>3.75</v>
           </cell>
           <cell r="H33">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="34">
           <cell r="G34">
-            <v>0</v>
+            <v>1.5</v>
           </cell>
           <cell r="H34">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="35">
@@ -3567,7 +3570,7 @@
         </row>
         <row r="45">
           <cell r="G45">
-            <v>53.75</v>
+            <v>66.5</v>
           </cell>
         </row>
       </sheetData>
@@ -3770,10 +3773,10 @@
         </row>
         <row r="30">
           <cell r="G30">
-            <v>0</v>
+            <v>1.5</v>
           </cell>
           <cell r="H30">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="31">
@@ -3890,7 +3893,7 @@
         </row>
         <row r="45">
           <cell r="G45">
-            <v>90.75</v>
+            <v>92.25</v>
           </cell>
         </row>
       </sheetData>
@@ -4195,11 +4198,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4253,23 +4256,23 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>E41</f>
-        <v>86.5</v>
+        <v>96.5</v>
       </c>
       <c r="B4" s="1">
         <f>F41</f>
-        <v>87.75</v>
+        <v>90.25</v>
       </c>
       <c r="C4" s="1">
         <f>G41</f>
-        <v>34.25</v>
+        <v>47.75</v>
       </c>
       <c r="D4" s="1">
         <f>H41</f>
-        <v>53.75</v>
+        <v>66.5</v>
       </c>
       <c r="E4" s="1">
         <f>I41</f>
-        <v>90.75</v>
+        <v>92.25</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="27"/>
@@ -4767,7 +4770,7 @@
       </c>
       <c r="H35" s="8">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A35,[4]Teuchtmann!$G$7:$G$45)</f>
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="I35" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$45,$A35,[5]Tomic!$G$7:$G$45)</f>
@@ -4775,11 +4778,11 @@
       </c>
       <c r="J35" s="8">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K35" s="9">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -4799,31 +4802,31 @@
       </c>
       <c r="E36" s="8">
         <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A36,[1]Aistleithner!$G$7:$G$45)</f>
-        <v>20.5</v>
+        <v>30.5</v>
       </c>
       <c r="F36" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$45,$A36,[2]Dusanic!$G$7:$G$45)</f>
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="G36" s="8">
         <f>SUMIF([3]Huber!$H$7:$H$45,$A36,[3]Huber!$G$7:$G$45)</f>
-        <v>4.5</v>
+        <v>18</v>
       </c>
       <c r="H36" s="8">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A36,[4]Teuchtmann!$G$7:$G$45)</f>
-        <v>4.5</v>
+        <v>16.25</v>
       </c>
       <c r="I36" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$45,$A36,[5]Tomic!$G$7:$G$45)</f>
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="J36" s="8">
         <f t="shared" si="0"/>
-        <v>62.5</v>
+        <v>101.75</v>
       </c>
       <c r="K36" s="9">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>51.75</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -5014,31 +5017,31 @@
       </c>
       <c r="E41" s="14">
         <f>SUM(E26:E40)</f>
-        <v>86.5</v>
+        <v>96.5</v>
       </c>
       <c r="F41" s="14">
         <f t="shared" ref="F41:J41" si="4">SUM(F26:F40)</f>
-        <v>87.75</v>
+        <v>90.25</v>
       </c>
       <c r="G41" s="14">
         <f t="shared" si="4"/>
-        <v>34.25</v>
+        <v>47.75</v>
       </c>
       <c r="H41" s="14">
         <f t="shared" si="4"/>
-        <v>53.75</v>
+        <v>66.5</v>
       </c>
       <c r="I41" s="14">
         <f t="shared" si="4"/>
-        <v>90.75</v>
+        <v>92.25</v>
       </c>
       <c r="J41" s="14">
         <f t="shared" si="4"/>
-        <v>353</v>
+        <v>393.25</v>
       </c>
       <c r="K41" s="14">
         <f>SUM(K26:K40)</f>
-        <v>-397</v>
+        <v>-356.75</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majad\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -335,8 +335,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -354,7 +354,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -563,19 +563,19 @@
                 <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>96.5</c:v>
+                  <c:v>108.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90.25</c:v>
+                  <c:v>103.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>47.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.5</c:v>
+                  <c:v>68.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92.25</c:v>
+                  <c:v>128.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -684,7 +684,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -883,7 +883,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46.25</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -892,13 +892,13 @@
                   <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>101.75</c:v>
+                  <c:v>129.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -925,11 +925,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="342508080"/>
-        <c:axId val="342509168"/>
+        <c:axId val="-1924781200"/>
+        <c:axId val="-1924774672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="342508080"/>
+        <c:axId val="-1924781200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,7 +972,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342509168"/>
+        <c:crossAx val="-1924774672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -980,7 +980,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="342509168"/>
+        <c:axId val="-1924774672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,7 +1031,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342508080"/>
+        <c:crossAx val="-1924781200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2235,7 +2235,7 @@
         <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F560239F-18FA-4CBB-B83B-E832D6AA06EA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F560239F-18FA-4CBB-B83B-E832D6AA06EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2271,7 +2271,7 @@
         <xdr:cNvPr id="4" name="Diagramm 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3AEB81ED-2AA8-40DB-9E05-30DB11FA7698}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AEB81ED-2AA8-40DB-9E05-30DB11FA7698}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2582,34 +2582,34 @@
         </row>
         <row r="42">
           <cell r="G42">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H42">
-            <v>1</v>
+            <v>22</v>
           </cell>
         </row>
         <row r="43">
           <cell r="G43">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="H43">
-            <v>1</v>
+            <v>22</v>
           </cell>
         </row>
         <row r="44">
           <cell r="G44">
-            <v>0</v>
+            <v>4.5</v>
           </cell>
           <cell r="H44">
-            <v>1</v>
+            <v>22</v>
           </cell>
         </row>
         <row r="45">
           <cell r="G45">
-            <v>0</v>
+            <v>4.5</v>
           </cell>
           <cell r="H45">
-            <v>1</v>
+            <v>22</v>
           </cell>
         </row>
       </sheetData>
@@ -2820,34 +2820,34 @@
         </row>
         <row r="31">
           <cell r="G31">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H31">
-            <v>1</v>
+            <v>22</v>
           </cell>
         </row>
         <row r="32">
           <cell r="G32">
-            <v>0</v>
+            <v>6</v>
           </cell>
           <cell r="H32">
-            <v>1</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="33">
           <cell r="G33">
-            <v>0</v>
+            <v>4</v>
           </cell>
           <cell r="H33">
-            <v>1</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="34">
           <cell r="G34">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="H34">
-            <v>1</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="35">
@@ -2932,7 +2932,7 @@
         </row>
         <row r="45">
           <cell r="G45">
-            <v>90.25</v>
+            <v>103.25</v>
           </cell>
         </row>
       </sheetData>
@@ -3490,10 +3490,10 @@
         </row>
         <row r="35">
           <cell r="G35">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="H35">
-            <v>1</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="36">
@@ -3570,7 +3570,7 @@
         </row>
         <row r="45">
           <cell r="G45">
-            <v>66.5</v>
+            <v>68.5</v>
           </cell>
         </row>
       </sheetData>
@@ -3781,74 +3781,74 @@
         </row>
         <row r="31">
           <cell r="G31">
-            <v>0</v>
+            <v>3</v>
           </cell>
           <cell r="H31">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="32">
           <cell r="G32">
-            <v>0</v>
+            <v>4</v>
           </cell>
           <cell r="H32">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="33">
           <cell r="G33">
-            <v>0</v>
+            <v>5</v>
           </cell>
           <cell r="H33">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="34">
           <cell r="G34">
-            <v>0</v>
+            <v>3.5</v>
           </cell>
           <cell r="H34">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="35">
           <cell r="G35">
-            <v>0</v>
+            <v>5</v>
           </cell>
           <cell r="H35">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="36">
           <cell r="G36">
-            <v>0</v>
+            <v>7</v>
           </cell>
           <cell r="H36">
-            <v>1</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="37">
           <cell r="G37">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H37">
-            <v>1</v>
+            <v>22</v>
           </cell>
         </row>
         <row r="38">
           <cell r="G38">
-            <v>0</v>
+            <v>6</v>
           </cell>
           <cell r="H38">
-            <v>1</v>
+            <v>22</v>
           </cell>
         </row>
         <row r="39">
           <cell r="G39">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="H39">
-            <v>1</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="40">
@@ -3893,7 +3893,7 @@
         </row>
         <row r="45">
           <cell r="G45">
-            <v>92.25</v>
+            <v>128.75</v>
           </cell>
         </row>
       </sheetData>
@@ -4201,25 +4201,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
     <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>5</v>
       </c>
@@ -4233,7 +4233,7 @@
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -4253,14 +4253,14 @@
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <f>E41</f>
-        <v>96.5</v>
+        <v>108.5</v>
       </c>
       <c r="B4" s="1">
         <f>F41</f>
-        <v>90.25</v>
+        <v>103.25</v>
       </c>
       <c r="C4" s="1">
         <f>G41</f>
@@ -4268,23 +4268,23 @@
       </c>
       <c r="D4" s="1">
         <f>H41</f>
-        <v>66.5</v>
+        <v>68.5</v>
       </c>
       <c r="E4" s="1">
         <f>I41</f>
-        <v>92.25</v>
+        <v>128.75</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
         <v>6</v>
       </c>
@@ -4299,7 +4299,7 @@
       <c r="J23" s="25"/>
       <c r="K23" s="26"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4314,7 +4314,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
         <v>7</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>11</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>-42.25</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>12</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>-32.25</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>13</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>14</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>-27.75</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>15</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>22.75</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>16</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>-23.25</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>17</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>-35</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>18</v>
       </c>
@@ -4674,7 +4674,7 @@
       </c>
       <c r="F33" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$45,$A33,[2]Dusanic!$G$7:$G$45)</f>
-        <v>10.25</v>
+        <v>20.25</v>
       </c>
       <c r="G33" s="8">
         <f>SUMIF([3]Huber!$H$7:$H$45,$A33,[3]Huber!$G$7:$G$45)</f>
@@ -4690,14 +4690,14 @@
       </c>
       <c r="J33" s="8">
         <f t="shared" si="0"/>
-        <v>46.25</v>
+        <v>56.25</v>
       </c>
       <c r="K33" s="9">
         <f t="shared" si="1"/>
-        <v>-3.75</v>
+        <v>6.25</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>19</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>20</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>21</v>
       </c>
@@ -4818,18 +4818,18 @@
       </c>
       <c r="I36" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$45,$A36,[5]Tomic!$G$7:$G$45)</f>
-        <v>18</v>
+        <v>45.5</v>
       </c>
       <c r="J36" s="8">
         <f t="shared" si="0"/>
-        <v>101.75</v>
+        <v>129.25</v>
       </c>
       <c r="K36" s="9">
         <f t="shared" si="1"/>
-        <v>51.75</v>
+        <v>79.25</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>22</v>
       </c>
@@ -4846,11 +4846,11 @@
       </c>
       <c r="E37" s="8">
         <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A37,[1]Aistleithner!$G$7:$G$45)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F37" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$45,$A37,[2]Dusanic!$G$7:$G$45)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="8">
         <f>SUMIF([3]Huber!$H$7:$H$45,$A37,[3]Huber!$G$7:$G$45)</f>
@@ -4862,18 +4862,18 @@
       </c>
       <c r="I37" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$45,$A37,[5]Tomic!$G$7:$G$45)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J37" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K37" s="9">
         <f t="shared" si="1"/>
-        <v>-50</v>
+        <v>-30</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>23</v>
       </c>
@@ -4894,7 +4894,7 @@
       </c>
       <c r="F38" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$45,$A38,[2]Dusanic!$G$7:$G$45)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38" s="8">
         <f>SUMIF([3]Huber!$H$7:$H$45,$A38,[3]Huber!$G$7:$G$45)</f>
@@ -4902,22 +4902,22 @@
       </c>
       <c r="H38" s="8">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A38,[4]Teuchtmann!$G$7:$G$45)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$45,$A38,[5]Tomic!$G$7:$G$45)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K38" s="9">
         <f t="shared" si="1"/>
-        <v>-50</v>
+        <v>-44</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>24</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="10">
         <v>25</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="15" t="s">
         <v>15</v>
       </c>
@@ -5017,11 +5017,11 @@
       </c>
       <c r="E41" s="14">
         <f>SUM(E26:E40)</f>
-        <v>96.5</v>
+        <v>108.5</v>
       </c>
       <c r="F41" s="14">
         <f t="shared" ref="F41:J41" si="4">SUM(F26:F40)</f>
-        <v>90.25</v>
+        <v>103.25</v>
       </c>
       <c r="G41" s="14">
         <f t="shared" si="4"/>
@@ -5029,57 +5029,57 @@
       </c>
       <c r="H41" s="14">
         <f t="shared" si="4"/>
-        <v>66.5</v>
+        <v>68.5</v>
       </c>
       <c r="I41" s="14">
         <f t="shared" si="4"/>
-        <v>92.25</v>
+        <v>128.75</v>
       </c>
       <c r="J41" s="14">
         <f t="shared" si="4"/>
-        <v>393.25</v>
+        <v>456.75</v>
       </c>
       <c r="K41" s="14">
         <f>SUM(K26:K40)</f>
-        <v>-356.75</v>
+        <v>-293.25</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>23</v>
       </c>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majad\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13950" yWindow="0" windowWidth="28800" windowHeight="12360"/>
+    <workbookView xWindow="18150" yWindow="0" windowWidth="28800" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -335,8 +335,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -354,7 +354,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -563,19 +563,19 @@
                 <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>108.5</c:v>
+                  <c:v>112.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>103.25</c:v>
+                  <c:v>105.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.75</c:v>
+                  <c:v>56.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68.5</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>128.75</c:v>
+                  <c:v>130.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -684,7 +684,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -895,10 +895,10 @@
                   <c:v>129.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -925,11 +925,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1924781200"/>
-        <c:axId val="-1924774672"/>
+        <c:axId val="1691668720"/>
+        <c:axId val="1691679056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1924781200"/>
+        <c:axId val="1691668720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,7 +972,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1924774672"/>
+        <c:crossAx val="1691679056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -980,7 +980,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1924774672"/>
+        <c:axId val="1691679056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,7 +1031,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1924781200"/>
+        <c:crossAx val="1691668720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2235,7 +2235,7 @@
         <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F560239F-18FA-4CBB-B83B-E832D6AA06EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F560239F-18FA-4CBB-B83B-E832D6AA06EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2271,7 +2271,7 @@
         <xdr:cNvPr id="4" name="Diagramm 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AEB81ED-2AA8-40DB-9E05-30DB11FA7698}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3AEB81ED-2AA8-40DB-9E05-30DB11FA7698}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2612,6 +2612,78 @@
             <v>22</v>
           </cell>
         </row>
+        <row r="46">
+          <cell r="G46">
+            <v>2</v>
+          </cell>
+          <cell r="H46">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="G47">
+            <v>2</v>
+          </cell>
+          <cell r="H47">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="G48">
+            <v>0</v>
+          </cell>
+          <cell r="H48">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="G49">
+            <v>0</v>
+          </cell>
+          <cell r="H49">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="G50">
+            <v>0</v>
+          </cell>
+          <cell r="H50">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="G51">
+            <v>0</v>
+          </cell>
+          <cell r="H51">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="G52">
+            <v>0</v>
+          </cell>
+          <cell r="H52">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="G53">
+            <v>0</v>
+          </cell>
+          <cell r="H53">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="G54">
+            <v>0</v>
+          </cell>
+          <cell r="H54">
+            <v>1</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -2852,10 +2924,10 @@
         </row>
         <row r="35">
           <cell r="G35">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="H35">
-            <v>1</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="36">
@@ -2932,7 +3004,50 @@
         </row>
         <row r="45">
           <cell r="G45">
-            <v>103.25</v>
+            <v>0</v>
+          </cell>
+          <cell r="H45">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="G46">
+            <v>0</v>
+          </cell>
+          <cell r="H46">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="G47">
+            <v>0</v>
+          </cell>
+          <cell r="H47">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="G48">
+            <v>0</v>
+          </cell>
+          <cell r="H48">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="G49">
+            <v>0</v>
+          </cell>
+          <cell r="H49">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="G50">
+            <v>0</v>
+          </cell>
+          <cell r="H50">
+            <v>1</v>
           </cell>
         </row>
       </sheetData>
@@ -3031,18 +3146,18 @@
         </row>
         <row r="17">
           <cell r="G17">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="H17">
-            <v>17</v>
+            <v>16</v>
           </cell>
         </row>
         <row r="18">
           <cell r="G18">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="H18">
-            <v>16</v>
+            <v>17</v>
           </cell>
         </row>
         <row r="19">
@@ -3111,34 +3226,34 @@
         </row>
         <row r="27">
           <cell r="G27">
-            <v>0</v>
+            <v>3</v>
           </cell>
           <cell r="H27">
-            <v>1</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="28">
           <cell r="G28">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="H28">
-            <v>1</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="29">
           <cell r="G29">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="H29">
-            <v>1</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="30">
           <cell r="G30">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="H30">
-            <v>1</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="31">
@@ -3247,7 +3362,58 @@
         </row>
         <row r="44">
           <cell r="G44">
-            <v>47.75</v>
+            <v>0</v>
+          </cell>
+          <cell r="H44">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="G45">
+            <v>0</v>
+          </cell>
+          <cell r="H45">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="G46">
+            <v>0</v>
+          </cell>
+          <cell r="H46">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="G47">
+            <v>0</v>
+          </cell>
+          <cell r="H47">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="G48">
+            <v>0</v>
+          </cell>
+          <cell r="H48">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="G49">
+            <v>0</v>
+          </cell>
+          <cell r="H49">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="G50">
+            <v>0</v>
+          </cell>
+          <cell r="H50">
+            <v>1</v>
           </cell>
         </row>
       </sheetData>
@@ -3370,23 +3536,23 @@
         </row>
         <row r="20">
           <cell r="G20">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="H20">
-            <v>17</v>
+            <v>16</v>
           </cell>
         </row>
         <row r="21">
           <cell r="G21">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="H21">
-            <v>16</v>
+            <v>17</v>
           </cell>
         </row>
         <row r="22">
           <cell r="G22">
-            <v>3</v>
+            <v>1.25</v>
           </cell>
           <cell r="H22">
             <v>18</v>
@@ -3394,7 +3560,7 @@
         </row>
         <row r="23">
           <cell r="G23">
-            <v>1.25</v>
+            <v>2.5</v>
           </cell>
           <cell r="H23">
             <v>18</v>
@@ -3402,7 +3568,7 @@
         </row>
         <row r="24">
           <cell r="G24">
-            <v>2.5</v>
+            <v>3</v>
           </cell>
           <cell r="H24">
             <v>18</v>
@@ -3418,7 +3584,7 @@
         </row>
         <row r="26">
           <cell r="G26">
-            <v>4</v>
+            <v>2.5</v>
           </cell>
           <cell r="H26">
             <v>20</v>
@@ -3426,7 +3592,7 @@
         </row>
         <row r="27">
           <cell r="G27">
-            <v>2.5</v>
+            <v>3</v>
           </cell>
           <cell r="H27">
             <v>20</v>
@@ -3434,7 +3600,7 @@
         </row>
         <row r="28">
           <cell r="G28">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="H28">
             <v>20</v>
@@ -3450,7 +3616,7 @@
         </row>
         <row r="30">
           <cell r="G30">
-            <v>4.5</v>
+            <v>3.5</v>
           </cell>
           <cell r="H30">
             <v>21</v>
@@ -3458,7 +3624,7 @@
         </row>
         <row r="31">
           <cell r="G31">
-            <v>3</v>
+            <v>3.75</v>
           </cell>
           <cell r="H31">
             <v>21</v>
@@ -3466,7 +3632,7 @@
         </row>
         <row r="32">
           <cell r="G32">
-            <v>3.5</v>
+            <v>4.5</v>
           </cell>
           <cell r="H32">
             <v>21</v>
@@ -3474,7 +3640,7 @@
         </row>
         <row r="33">
           <cell r="G33">
-            <v>3.75</v>
+            <v>3</v>
           </cell>
           <cell r="H33">
             <v>21</v>
@@ -3490,26 +3656,26 @@
         </row>
         <row r="35">
           <cell r="G35">
-            <v>2</v>
+            <v>2.5</v>
           </cell>
           <cell r="H35">
-            <v>23</v>
+            <v>22</v>
           </cell>
         </row>
         <row r="36">
           <cell r="G36">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="H36">
-            <v>1</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="37">
           <cell r="G37">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="H37">
-            <v>1</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="38">
@@ -3570,7 +3736,50 @@
         </row>
         <row r="45">
           <cell r="G45">
-            <v>68.5</v>
+            <v>0</v>
+          </cell>
+          <cell r="H45">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="G46">
+            <v>0</v>
+          </cell>
+          <cell r="H46">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="G47">
+            <v>0</v>
+          </cell>
+          <cell r="H47">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="G48">
+            <v>0</v>
+          </cell>
+          <cell r="H48">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="G49">
+            <v>0</v>
+          </cell>
+          <cell r="H49">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="G50">
+            <v>0</v>
+          </cell>
+          <cell r="H50">
+            <v>1</v>
           </cell>
         </row>
       </sheetData>
@@ -3853,10 +4062,10 @@
         </row>
         <row r="40">
           <cell r="G40">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="H40">
-            <v>1</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="41">
@@ -3893,7 +4102,50 @@
         </row>
         <row r="45">
           <cell r="G45">
-            <v>128.75</v>
+            <v>0</v>
+          </cell>
+          <cell r="H45">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="G46">
+            <v>0</v>
+          </cell>
+          <cell r="H46">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="G47">
+            <v>0</v>
+          </cell>
+          <cell r="H47">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="G48">
+            <v>0</v>
+          </cell>
+          <cell r="H48">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="G49">
+            <v>0</v>
+          </cell>
+          <cell r="H49">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="G50">
+            <v>0</v>
+          </cell>
+          <cell r="H50">
+            <v>1</v>
           </cell>
         </row>
       </sheetData>
@@ -4201,11 +4453,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.54296875" customWidth="1"/>
@@ -4215,7 +4467,7 @@
     <col min="6" max="6" width="10.453125" customWidth="1"/>
     <col min="7" max="7" width="10.81640625" customWidth="1"/>
     <col min="8" max="8" width="14.7265625" customWidth="1"/>
-    <col min="9" max="9" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="41.54296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4256,23 +4508,23 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <f>E41</f>
-        <v>108.5</v>
+        <v>112.5</v>
       </c>
       <c r="B4" s="1">
         <f>F41</f>
-        <v>103.25</v>
+        <v>105.25</v>
       </c>
       <c r="C4" s="1">
         <f>G41</f>
-        <v>47.75</v>
+        <v>56.75</v>
       </c>
       <c r="D4" s="1">
         <f>H41</f>
-        <v>68.5</v>
+        <v>73</v>
       </c>
       <c r="E4" s="1">
         <f>I41</f>
-        <v>128.75</v>
+        <v>130.75</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="27"/>
@@ -4361,23 +4613,23 @@
         <v>50</v>
       </c>
       <c r="E26" s="8">
-        <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A26,[1]Aistleithner!$G$7:$G$45)</f>
+        <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A26,[1]Aistleithner!$G$7:$G$54)</f>
         <v>1.75</v>
       </c>
       <c r="F26" s="8">
-        <f>SUMIF([2]Dusanic!$H$7:$H$45,$A26,[2]Dusanic!$G$7:$G$45)</f>
+        <f>SUMIF([2]Dusanic!$H$7:$H$50,$A26,[2]Dusanic!$G$7:$G$50)</f>
         <v>1</v>
       </c>
       <c r="G26" s="8">
-        <f>SUMIF([3]Huber!$H$7:$H$45,$A26,[3]Huber!$G$7:$G$45)</f>
+        <f>SUMIF([3]Huber!$H$7:$H$50,$A26,[3]Huber!$G$7:$G$50)</f>
         <v>0</v>
       </c>
       <c r="H26" s="8">
-        <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A26,[4]Teuchtmann!$G$7:$G$45)</f>
+        <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A26,[4]Teuchtmann!$G$7:$G$50)</f>
         <v>4</v>
       </c>
       <c r="I26" s="8">
-        <f>SUMIF([5]Tomic!$H$7:$H$45,$A26,[5]Tomic!$G$7:$G$45)</f>
+        <f>SUMIF([5]Tomic!$H$7:$H$50,$A26,[5]Tomic!$G$7:$G$50)</f>
         <v>1</v>
       </c>
       <c r="J26" s="8">
@@ -4405,23 +4657,23 @@
         <v>50</v>
       </c>
       <c r="E27" s="8">
-        <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A27,[1]Aistleithner!$G$7:$G$45)</f>
+        <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A27,[1]Aistleithner!$G$7:$G$54)</f>
         <v>4.25</v>
       </c>
       <c r="F27" s="8">
-        <f>SUMIF([2]Dusanic!$H$7:$H$45,$A27,[2]Dusanic!$G$7:$G$45)</f>
+        <f>SUMIF([2]Dusanic!$H$7:$H$50,$A27,[2]Dusanic!$G$7:$G$50)</f>
         <v>2.75</v>
       </c>
       <c r="G27" s="8">
-        <f>SUMIF([3]Huber!$H$7:$H$45,$A27,[3]Huber!$G$7:$G$45)</f>
+        <f>SUMIF([3]Huber!$H$7:$H$50,$A27,[3]Huber!$G$7:$G$50)</f>
         <v>3.75</v>
       </c>
       <c r="H27" s="8">
-        <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A27,[4]Teuchtmann!$G$7:$G$45)</f>
+        <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A27,[4]Teuchtmann!$G$7:$G$50)</f>
         <v>4.25</v>
       </c>
       <c r="I27" s="8">
-        <f>SUMIF([5]Tomic!$H$7:$H$45,$A27,[5]Tomic!$G$7:$G$45)</f>
+        <f>SUMIF([5]Tomic!$H$7:$H$50,$A27,[5]Tomic!$G$7:$G$50)</f>
         <v>2.75</v>
       </c>
       <c r="J27" s="8">
@@ -4449,23 +4701,23 @@
         <v>50</v>
       </c>
       <c r="E28" s="8">
-        <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A28,[1]Aistleithner!$G$7:$G$45)</f>
+        <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A28,[1]Aistleithner!$G$7:$G$54)</f>
         <v>0</v>
       </c>
       <c r="F28" s="8">
-        <f>SUMIF([2]Dusanic!$H$7:$H$45,$A28,[2]Dusanic!$G$7:$G$45)</f>
+        <f>SUMIF([2]Dusanic!$H$7:$H$50,$A28,[2]Dusanic!$G$7:$G$50)</f>
         <v>0</v>
       </c>
       <c r="G28" s="8">
-        <f>SUMIF([3]Huber!$H$7:$H$45,$A28,[3]Huber!$G$7:$G$45)</f>
+        <f>SUMIF([3]Huber!$H$7:$H$50,$A28,[3]Huber!$G$7:$G$50)</f>
         <v>0</v>
       </c>
       <c r="H28" s="8">
-        <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A28,[4]Teuchtmann!$G$7:$G$45)</f>
+        <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A28,[4]Teuchtmann!$G$7:$G$50)</f>
         <v>0</v>
       </c>
       <c r="I28" s="8">
-        <f>SUMIF([5]Tomic!$H$7:$H$45,$A28,[5]Tomic!$G$7:$G$45)</f>
+        <f>SUMIF([5]Tomic!$H$7:$H$50,$A28,[5]Tomic!$G$7:$G$50)</f>
         <v>0</v>
       </c>
       <c r="J28" s="8">
@@ -4493,23 +4745,23 @@
         <v>50</v>
       </c>
       <c r="E29" s="8">
-        <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A29,[1]Aistleithner!$G$7:$G$45)</f>
+        <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A29,[1]Aistleithner!$G$7:$G$54)</f>
         <v>3</v>
       </c>
       <c r="F29" s="8">
-        <f>SUMIF([2]Dusanic!$H$7:$H$45,$A29,[2]Dusanic!$G$7:$G$45)</f>
+        <f>SUMIF([2]Dusanic!$H$7:$H$50,$A29,[2]Dusanic!$G$7:$G$50)</f>
         <v>8</v>
       </c>
       <c r="G29" s="8">
-        <f>SUMIF([3]Huber!$H$7:$H$45,$A29,[3]Huber!$G$7:$G$45)</f>
+        <f>SUMIF([3]Huber!$H$7:$H$50,$A29,[3]Huber!$G$7:$G$50)</f>
         <v>1.5</v>
       </c>
       <c r="H29" s="8">
-        <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A29,[4]Teuchtmann!$G$7:$G$45)</f>
+        <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A29,[4]Teuchtmann!$G$7:$G$50)</f>
         <v>1.75</v>
       </c>
       <c r="I29" s="8">
-        <f>SUMIF([5]Tomic!$H$7:$H$45,$A29,[5]Tomic!$G$7:$G$45)</f>
+        <f>SUMIF([5]Tomic!$H$7:$H$50,$A29,[5]Tomic!$G$7:$G$50)</f>
         <v>8</v>
       </c>
       <c r="J29" s="8">
@@ -4537,23 +4789,23 @@
         <v>50</v>
       </c>
       <c r="E30" s="8">
-        <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A30,[1]Aistleithner!$G$7:$G$45)</f>
+        <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A30,[1]Aistleithner!$G$7:$G$54)</f>
         <v>17</v>
       </c>
       <c r="F30" s="8">
-        <f>SUMIF([2]Dusanic!$H$7:$H$45,$A30,[2]Dusanic!$G$7:$G$45)</f>
+        <f>SUMIF([2]Dusanic!$H$7:$H$50,$A30,[2]Dusanic!$G$7:$G$50)</f>
         <v>18.75</v>
       </c>
       <c r="G30" s="8">
-        <f>SUMIF([3]Huber!$H$7:$H$45,$A30,[3]Huber!$G$7:$G$45)</f>
+        <f>SUMIF([3]Huber!$H$7:$H$50,$A30,[3]Huber!$G$7:$G$50)</f>
         <v>6</v>
       </c>
       <c r="H30" s="8">
-        <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A30,[4]Teuchtmann!$G$7:$G$45)</f>
+        <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A30,[4]Teuchtmann!$G$7:$G$50)</f>
         <v>9.25</v>
       </c>
       <c r="I30" s="8">
-        <f>SUMIF([5]Tomic!$H$7:$H$45,$A30,[5]Tomic!$G$7:$G$45)</f>
+        <f>SUMIF([5]Tomic!$H$7:$H$50,$A30,[5]Tomic!$G$7:$G$50)</f>
         <v>21.75</v>
       </c>
       <c r="J30" s="8">
@@ -4581,23 +4833,23 @@
         <v>50</v>
       </c>
       <c r="E31" s="8">
-        <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A31,[1]Aistleithner!$G$7:$G$45)</f>
+        <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A31,[1]Aistleithner!$G$7:$G$54)</f>
         <v>7</v>
       </c>
       <c r="F31" s="8">
-        <f>SUMIF([2]Dusanic!$H$7:$H$45,$A31,[2]Dusanic!$G$7:$G$45)</f>
+        <f>SUMIF([2]Dusanic!$H$7:$H$50,$A31,[2]Dusanic!$G$7:$G$50)</f>
         <v>3.5</v>
       </c>
       <c r="G31" s="8">
-        <f>SUMIF([3]Huber!$H$7:$H$45,$A31,[3]Huber!$G$7:$G$45)</f>
+        <f>SUMIF([3]Huber!$H$7:$H$50,$A31,[3]Huber!$G$7:$G$50)</f>
         <v>7.25</v>
       </c>
       <c r="H31" s="8">
-        <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A31,[4]Teuchtmann!$G$7:$G$45)</f>
+        <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A31,[4]Teuchtmann!$G$7:$G$50)</f>
         <v>5.5</v>
       </c>
       <c r="I31" s="8">
-        <f>SUMIF([5]Tomic!$H$7:$H$45,$A31,[5]Tomic!$G$7:$G$45)</f>
+        <f>SUMIF([5]Tomic!$H$7:$H$50,$A31,[5]Tomic!$G$7:$G$50)</f>
         <v>3.5</v>
       </c>
       <c r="J31" s="8">
@@ -4625,23 +4877,23 @@
         <v>50</v>
       </c>
       <c r="E32" s="8">
-        <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A32,[1]Aistleithner!$G$7:$G$45)</f>
+        <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A32,[1]Aistleithner!$G$7:$G$54)</f>
         <v>3</v>
       </c>
       <c r="F32" s="8">
-        <f>SUMIF([2]Dusanic!$H$7:$H$45,$A32,[2]Dusanic!$G$7:$G$45)</f>
+        <f>SUMIF([2]Dusanic!$H$7:$H$50,$A32,[2]Dusanic!$G$7:$G$50)</f>
         <v>3</v>
       </c>
       <c r="G32" s="8">
-        <f>SUMIF([3]Huber!$H$7:$H$45,$A32,[3]Huber!$G$7:$G$45)</f>
+        <f>SUMIF([3]Huber!$H$7:$H$50,$A32,[3]Huber!$G$7:$G$50)</f>
         <v>3</v>
       </c>
       <c r="H32" s="8">
-        <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A32,[4]Teuchtmann!$G$7:$G$45)</f>
+        <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A32,[4]Teuchtmann!$G$7:$G$50)</f>
         <v>3</v>
       </c>
       <c r="I32" s="8">
-        <f>SUMIF([5]Tomic!$H$7:$H$45,$A32,[5]Tomic!$G$7:$G$45)</f>
+        <f>SUMIF([5]Tomic!$H$7:$H$50,$A32,[5]Tomic!$G$7:$G$50)</f>
         <v>3</v>
       </c>
       <c r="J32" s="8">
@@ -4669,23 +4921,23 @@
         <v>50</v>
       </c>
       <c r="E33" s="8">
-        <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A33,[1]Aistleithner!$G$7:$G$45)</f>
+        <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A33,[1]Aistleithner!$G$7:$G$54)</f>
         <v>12.5</v>
       </c>
       <c r="F33" s="8">
-        <f>SUMIF([2]Dusanic!$H$7:$H$45,$A33,[2]Dusanic!$G$7:$G$45)</f>
+        <f>SUMIF([2]Dusanic!$H$7:$H$50,$A33,[2]Dusanic!$G$7:$G$50)</f>
         <v>20.25</v>
       </c>
       <c r="G33" s="8">
-        <f>SUMIF([3]Huber!$H$7:$H$45,$A33,[3]Huber!$G$7:$G$45)</f>
+        <f>SUMIF([3]Huber!$H$7:$H$50,$A33,[3]Huber!$G$7:$G$50)</f>
         <v>4.25</v>
       </c>
       <c r="H33" s="8">
-        <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A33,[4]Teuchtmann!$G$7:$G$45)</f>
+        <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A33,[4]Teuchtmann!$G$7:$G$50)</f>
         <v>9</v>
       </c>
       <c r="I33" s="8">
-        <f>SUMIF([5]Tomic!$H$7:$H$45,$A33,[5]Tomic!$G$7:$G$45)</f>
+        <f>SUMIF([5]Tomic!$H$7:$H$50,$A33,[5]Tomic!$G$7:$G$50)</f>
         <v>10.25</v>
       </c>
       <c r="J33" s="8">
@@ -4713,23 +4965,23 @@
         <v>50</v>
       </c>
       <c r="E34" s="8">
-        <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A34,[1]Aistleithner!$G$7:$G$45)</f>
+        <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A34,[1]Aistleithner!$G$7:$G$54)</f>
         <v>0</v>
       </c>
       <c r="F34" s="8">
-        <f>SUMIF([2]Dusanic!$H$7:$H$45,$A34,[2]Dusanic!$G$7:$G$45)</f>
+        <f>SUMIF([2]Dusanic!$H$7:$H$50,$A34,[2]Dusanic!$G$7:$G$50)</f>
         <v>0</v>
       </c>
       <c r="G34" s="8">
-        <f>SUMIF([3]Huber!$H$7:$H$45,$A34,[3]Huber!$G$7:$G$45)</f>
+        <f>SUMIF([3]Huber!$H$7:$H$50,$A34,[3]Huber!$G$7:$G$50)</f>
         <v>0</v>
       </c>
       <c r="H34" s="8">
-        <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A34,[4]Teuchtmann!$G$7:$G$45)</f>
+        <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A34,[4]Teuchtmann!$G$7:$G$50)</f>
         <v>0</v>
       </c>
       <c r="I34" s="8">
-        <f>SUMIF([5]Tomic!$H$7:$H$45,$A34,[5]Tomic!$G$7:$G$45)</f>
+        <f>SUMIF([5]Tomic!$H$7:$H$50,$A34,[5]Tomic!$G$7:$G$50)</f>
         <v>0</v>
       </c>
       <c r="J34" s="8">
@@ -4757,23 +5009,23 @@
         <v>50</v>
       </c>
       <c r="E35" s="8">
-        <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A35,[1]Aistleithner!$G$7:$G$45)</f>
+        <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A35,[1]Aistleithner!$G$7:$G$54)</f>
         <v>17.5</v>
       </c>
       <c r="F35" s="8">
-        <f>SUMIF([2]Dusanic!$H$7:$H$45,$A35,[2]Dusanic!$G$7:$G$45)</f>
+        <f>SUMIF([2]Dusanic!$H$7:$H$50,$A35,[2]Dusanic!$G$7:$G$50)</f>
         <v>24</v>
       </c>
       <c r="G35" s="8">
-        <f>SUMIF([3]Huber!$H$7:$H$45,$A35,[3]Huber!$G$7:$G$45)</f>
+        <f>SUMIF([3]Huber!$H$7:$H$50,$A35,[3]Huber!$G$7:$G$50)</f>
         <v>4</v>
       </c>
       <c r="H35" s="8">
-        <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A35,[4]Teuchtmann!$G$7:$G$45)</f>
+        <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A35,[4]Teuchtmann!$G$7:$G$50)</f>
         <v>13.5</v>
       </c>
       <c r="I35" s="8">
-        <f>SUMIF([5]Tomic!$H$7:$H$45,$A35,[5]Tomic!$G$7:$G$45)</f>
+        <f>SUMIF([5]Tomic!$H$7:$H$50,$A35,[5]Tomic!$G$7:$G$50)</f>
         <v>24</v>
       </c>
       <c r="J35" s="8">
@@ -4801,23 +5053,23 @@
         <v>50</v>
       </c>
       <c r="E36" s="8">
-        <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A36,[1]Aistleithner!$G$7:$G$45)</f>
+        <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A36,[1]Aistleithner!$G$7:$G$54)</f>
         <v>30.5</v>
       </c>
       <c r="F36" s="8">
-        <f>SUMIF([2]Dusanic!$H$7:$H$45,$A36,[2]Dusanic!$G$7:$G$45)</f>
+        <f>SUMIF([2]Dusanic!$H$7:$H$50,$A36,[2]Dusanic!$G$7:$G$50)</f>
         <v>19</v>
       </c>
       <c r="G36" s="8">
-        <f>SUMIF([3]Huber!$H$7:$H$45,$A36,[3]Huber!$G$7:$G$45)</f>
+        <f>SUMIF([3]Huber!$H$7:$H$50,$A36,[3]Huber!$G$7:$G$50)</f>
         <v>18</v>
       </c>
       <c r="H36" s="8">
-        <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A36,[4]Teuchtmann!$G$7:$G$45)</f>
+        <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A36,[4]Teuchtmann!$G$7:$G$50)</f>
         <v>16.25</v>
       </c>
       <c r="I36" s="8">
-        <f>SUMIF([5]Tomic!$H$7:$H$45,$A36,[5]Tomic!$G$7:$G$45)</f>
+        <f>SUMIF([5]Tomic!$H$7:$H$50,$A36,[5]Tomic!$G$7:$G$50)</f>
         <v>45.5</v>
       </c>
       <c r="J36" s="8">
@@ -4845,32 +5097,32 @@
         <v>50</v>
       </c>
       <c r="E37" s="8">
-        <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A37,[1]Aistleithner!$G$7:$G$45)</f>
+        <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A37,[1]Aistleithner!$G$7:$G$54)</f>
         <v>12</v>
       </c>
       <c r="F37" s="8">
-        <f>SUMIF([2]Dusanic!$H$7:$H$45,$A37,[2]Dusanic!$G$7:$G$45)</f>
+        <f>SUMIF([2]Dusanic!$H$7:$H$50,$A37,[2]Dusanic!$G$7:$G$50)</f>
         <v>1</v>
       </c>
       <c r="G37" s="8">
-        <f>SUMIF([3]Huber!$H$7:$H$45,$A37,[3]Huber!$G$7:$G$45)</f>
+        <f>SUMIF([3]Huber!$H$7:$H$50,$A37,[3]Huber!$G$7:$G$50)</f>
         <v>0</v>
       </c>
       <c r="H37" s="8">
-        <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A37,[4]Teuchtmann!$G$7:$G$45)</f>
-        <v>0</v>
+        <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A37,[4]Teuchtmann!$G$7:$G$50)</f>
+        <v>2.5</v>
       </c>
       <c r="I37" s="8">
-        <f>SUMIF([5]Tomic!$H$7:$H$45,$A37,[5]Tomic!$G$7:$G$45)</f>
+        <f>SUMIF([5]Tomic!$H$7:$H$50,$A37,[5]Tomic!$G$7:$G$50)</f>
         <v>7</v>
       </c>
       <c r="J37" s="8">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22.5</v>
       </c>
       <c r="K37" s="9">
         <f t="shared" si="1"/>
-        <v>-30</v>
+        <v>-27.5</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -4889,32 +5141,32 @@
         <v>50</v>
       </c>
       <c r="E38" s="8">
-        <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A38,[1]Aistleithner!$G$7:$G$45)</f>
-        <v>0</v>
+        <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A38,[1]Aistleithner!$G$7:$G$54)</f>
+        <v>4</v>
       </c>
       <c r="F38" s="8">
-        <f>SUMIF([2]Dusanic!$H$7:$H$45,$A38,[2]Dusanic!$G$7:$G$45)</f>
-        <v>2</v>
+        <f>SUMIF([2]Dusanic!$H$7:$H$50,$A38,[2]Dusanic!$G$7:$G$50)</f>
+        <v>4</v>
       </c>
       <c r="G38" s="8">
-        <f>SUMIF([3]Huber!$H$7:$H$45,$A38,[3]Huber!$G$7:$G$45)</f>
-        <v>0</v>
+        <f>SUMIF([3]Huber!$H$7:$H$50,$A38,[3]Huber!$G$7:$G$50)</f>
+        <v>9</v>
       </c>
       <c r="H38" s="8">
-        <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A38,[4]Teuchtmann!$G$7:$G$45)</f>
-        <v>2</v>
+        <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A38,[4]Teuchtmann!$G$7:$G$50)</f>
+        <v>4</v>
       </c>
       <c r="I38" s="8">
-        <f>SUMIF([5]Tomic!$H$7:$H$45,$A38,[5]Tomic!$G$7:$G$45)</f>
-        <v>2</v>
+        <f>SUMIF([5]Tomic!$H$7:$H$50,$A38,[5]Tomic!$G$7:$G$50)</f>
+        <v>4</v>
       </c>
       <c r="J38" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="K38" s="9">
         <f t="shared" si="1"/>
-        <v>-44</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
@@ -4933,23 +5185,23 @@
         <v>50</v>
       </c>
       <c r="E39" s="8">
-        <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A39,[1]Aistleithner!$G$7:$G$45)</f>
+        <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A39,[1]Aistleithner!$G$7:$G$54)</f>
         <v>0</v>
       </c>
       <c r="F39" s="8">
-        <f>SUMIF([2]Dusanic!$H$7:$H$45,$A39,[2]Dusanic!$G$7:$G$45)</f>
+        <f>SUMIF([2]Dusanic!$H$7:$H$50,$A39,[2]Dusanic!$G$7:$G$50)</f>
         <v>0</v>
       </c>
       <c r="G39" s="8">
-        <f>SUMIF([3]Huber!$H$7:$H$45,$A39,[3]Huber!$G$7:$G$45)</f>
+        <f>SUMIF([3]Huber!$H$7:$H$50,$A39,[3]Huber!$G$7:$G$50)</f>
         <v>0</v>
       </c>
       <c r="H39" s="8">
-        <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A39,[4]Teuchtmann!$G$7:$G$45)</f>
+        <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A39,[4]Teuchtmann!$G$7:$G$50)</f>
         <v>0</v>
       </c>
       <c r="I39" s="8">
-        <f>SUMIF([5]Tomic!$H$7:$H$45,$A39,[5]Tomic!$G$7:$G$45)</f>
+        <f>SUMIF([5]Tomic!$H$7:$H$50,$A39,[5]Tomic!$G$7:$G$50)</f>
         <v>0</v>
       </c>
       <c r="J39" s="8">
@@ -4977,23 +5229,23 @@
         <v>50</v>
       </c>
       <c r="E40" s="8">
-        <f>SUMIF([1]Aistleithner!$H$7:$H$45,$A40,[1]Aistleithner!$G$7:$G$45)</f>
+        <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A40,[1]Aistleithner!$G$7:$G$54)</f>
         <v>0</v>
       </c>
       <c r="F40" s="8">
-        <f>SUMIF([2]Dusanic!$H$7:$H$45,$A40,[2]Dusanic!$G$7:$G$45)</f>
+        <f>SUMIF([2]Dusanic!$H$7:$H$50,$A40,[2]Dusanic!$G$7:$G$50)</f>
         <v>0</v>
       </c>
       <c r="G40" s="8">
-        <f>SUMIF([3]Huber!$H$7:$H$45,$A40,[3]Huber!$G$7:$G$45)</f>
+        <f>SUMIF([3]Huber!$H$7:$H$50,$A40,[3]Huber!$G$7:$G$50)</f>
         <v>0</v>
       </c>
       <c r="H40" s="8">
-        <f>SUMIF([4]Teuchtmann!$H$7:$H$45,$A40,[4]Teuchtmann!$G$7:$G$45)</f>
+        <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A40,[4]Teuchtmann!$G$7:$G$50)</f>
         <v>0</v>
       </c>
       <c r="I40" s="8">
-        <f>SUMIF([5]Tomic!$H$7:$H$45,$A40,[5]Tomic!$G$7:$G$45)</f>
+        <f>SUMIF([5]Tomic!$H$7:$H$50,$A40,[5]Tomic!$G$7:$G$50)</f>
         <v>0</v>
       </c>
       <c r="J40" s="12">
@@ -5017,31 +5269,31 @@
       </c>
       <c r="E41" s="14">
         <f>SUM(E26:E40)</f>
-        <v>108.5</v>
+        <v>112.5</v>
       </c>
       <c r="F41" s="14">
         <f t="shared" ref="F41:J41" si="4">SUM(F26:F40)</f>
-        <v>103.25</v>
+        <v>105.25</v>
       </c>
       <c r="G41" s="14">
         <f t="shared" si="4"/>
-        <v>47.75</v>
+        <v>56.75</v>
       </c>
       <c r="H41" s="14">
         <f t="shared" si="4"/>
-        <v>68.5</v>
+        <v>73</v>
       </c>
       <c r="I41" s="14">
         <f t="shared" si="4"/>
-        <v>128.75</v>
+        <v>130.75</v>
       </c>
       <c r="J41" s="14">
         <f t="shared" si="4"/>
-        <v>456.75</v>
+        <v>478.25</v>
       </c>
       <c r="K41" s="14">
         <f>SUM(K26:K40)</f>
-        <v>-293.25</v>
+        <v>-271.75</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18150" yWindow="0" windowWidth="28800" windowHeight="12360"/>
+    <workbookView xWindow="19080" yWindow="0" windowWidth="28800" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -569,7 +569,7 @@
                   <c:v>105.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.75</c:v>
+                  <c:v>63.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>73</c:v>
@@ -898,7 +898,7 @@
                   <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -925,11 +925,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1691668720"/>
-        <c:axId val="1691679056"/>
+        <c:axId val="-645785568"/>
+        <c:axId val="-645795904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1691668720"/>
+        <c:axId val="-645785568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,7 +972,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1691679056"/>
+        <c:crossAx val="-645795904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -980,7 +980,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1691679056"/>
+        <c:axId val="-645795904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,7 +1031,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1691668720"/>
+        <c:crossAx val="-645785568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2235,7 +2235,7 @@
         <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F560239F-18FA-4CBB-B83B-E832D6AA06EA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F560239F-18FA-4CBB-B83B-E832D6AA06EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2271,7 +2271,7 @@
         <xdr:cNvPr id="4" name="Diagramm 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3AEB81ED-2AA8-40DB-9E05-30DB11FA7698}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AEB81ED-2AA8-40DB-9E05-30DB11FA7698}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3258,10 +3258,10 @@
         </row>
         <row r="31">
           <cell r="G31">
-            <v>0</v>
+            <v>7</v>
           </cell>
           <cell r="H31">
-            <v>1</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="32">
@@ -4453,25 +4453,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" customWidth="1"/>
-    <col min="9" max="9" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.54296875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>5</v>
       </c>
@@ -4485,7 +4485,7 @@
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -4505,7 +4505,7 @@
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>E41</f>
         <v>112.5</v>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="C4" s="1">
         <f>G41</f>
-        <v>56.75</v>
+        <v>63.75</v>
       </c>
       <c r="D4" s="1">
         <f>H41</f>
@@ -4531,12 +4531,12 @@
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>6</v>
       </c>
@@ -4551,7 +4551,7 @@
       <c r="J23" s="25"/>
       <c r="K23" s="26"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4566,7 +4566,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>7</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>11</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>-42.25</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>12</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>-32.25</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>13</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>14</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>-27.75</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>15</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>22.75</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>16</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>-23.25</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>17</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>-35</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>18</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>19</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>20</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>21</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>79.25</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>22</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>-27.5</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>23</v>
       </c>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="G38" s="8">
         <f>SUMIF([3]Huber!$H$7:$H$50,$A38,[3]Huber!$G$7:$G$50)</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H38" s="8">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A38,[4]Teuchtmann!$G$7:$G$50)</f>
@@ -5162,14 +5162,14 @@
       </c>
       <c r="J38" s="8">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="K38" s="9">
         <f t="shared" si="1"/>
-        <v>-25</v>
+        <v>-18</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>24</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>25</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>15</v>
       </c>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="G41" s="14">
         <f t="shared" si="4"/>
-        <v>56.75</v>
+        <v>63.75</v>
       </c>
       <c r="H41" s="14">
         <f t="shared" si="4"/>
@@ -5289,49 +5289,49 @@
       </c>
       <c r="J41" s="14">
         <f t="shared" si="4"/>
-        <v>478.25</v>
+        <v>485.25</v>
       </c>
       <c r="K41" s="14">
         <f>SUM(K26:K40)</f>
-        <v>-271.75</v>
+        <v>-264.75</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>23</v>
       </c>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majad\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -335,8 +335,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -354,7 +354,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -566,13 +566,13 @@
                   <c:v>112.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105.25</c:v>
+                  <c:v>108.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>63.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73</c:v>
+                  <c:v>93.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>130.75</c:v>
@@ -684,7 +684,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -901,10 +901,10 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>20.25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -925,11 +925,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-645785568"/>
-        <c:axId val="-645795904"/>
+        <c:axId val="1780237104"/>
+        <c:axId val="1780235472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-645785568"/>
+        <c:axId val="1780237104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,7 +972,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-645795904"/>
+        <c:crossAx val="1780235472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -980,7 +980,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-645795904"/>
+        <c:axId val="1780235472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,7 +1031,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-645785568"/>
+        <c:crossAx val="1780237104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2932,10 +2932,10 @@
         </row>
         <row r="36">
           <cell r="G36">
-            <v>0</v>
+            <v>3</v>
           </cell>
           <cell r="H36">
-            <v>1</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="37">
@@ -3680,58 +3680,58 @@
         </row>
         <row r="38">
           <cell r="G38">
-            <v>0</v>
+            <v>2.5</v>
           </cell>
           <cell r="H38">
-            <v>1</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="39">
           <cell r="G39">
-            <v>0</v>
+            <v>4.5</v>
           </cell>
           <cell r="H39">
-            <v>1</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="40">
           <cell r="G40">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H40">
-            <v>1</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="41">
           <cell r="G41">
-            <v>0</v>
+            <v>3.75</v>
           </cell>
           <cell r="H41">
-            <v>1</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="42">
           <cell r="G42">
-            <v>0</v>
+            <v>1.5</v>
           </cell>
           <cell r="H42">
-            <v>1</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="43">
           <cell r="G43">
-            <v>0</v>
+            <v>2.5</v>
           </cell>
           <cell r="H43">
-            <v>1</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="44">
           <cell r="G44">
-            <v>0</v>
+            <v>4.5</v>
           </cell>
           <cell r="H44">
-            <v>1</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="45">
@@ -4453,25 +4453,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
     <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>5</v>
       </c>
@@ -4485,7 +4485,7 @@
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
@@ -4505,14 +4505,14 @@
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <f>E41</f>
         <v>112.5</v>
       </c>
       <c r="B4" s="1">
         <f>F41</f>
-        <v>105.25</v>
+        <v>108.25</v>
       </c>
       <c r="C4" s="1">
         <f>G41</f>
@@ -4520,7 +4520,7 @@
       </c>
       <c r="D4" s="1">
         <f>H41</f>
-        <v>73</v>
+        <v>93.25</v>
       </c>
       <c r="E4" s="1">
         <f>I41</f>
@@ -4531,12 +4531,12 @@
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
         <v>6</v>
       </c>
@@ -4551,7 +4551,7 @@
       <c r="J23" s="25"/>
       <c r="K23" s="26"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4566,7 +4566,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
         <v>7</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>11</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>-42.25</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>12</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>-32.25</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>13</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>14</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>-27.75</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>15</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>22.75</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>16</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>-23.25</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>17</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>-35</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>18</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>19</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>20</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>21</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>79.25</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>22</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>-27.5</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>23</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>24</v>
       </c>
@@ -5198,7 +5198,7 @@
       </c>
       <c r="H39" s="8">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A39,[4]Teuchtmann!$G$7:$G$50)</f>
-        <v>0</v>
+        <v>20.25</v>
       </c>
       <c r="I39" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$50,$A39,[5]Tomic!$G$7:$G$50)</f>
@@ -5206,14 +5206,14 @@
       </c>
       <c r="J39" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20.25</v>
       </c>
       <c r="K39" s="9">
         <f t="shared" si="1"/>
-        <v>-50</v>
+        <v>-29.75</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="10">
         <v>25</v>
       </c>
@@ -5234,7 +5234,7 @@
       </c>
       <c r="F40" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$50,$A40,[2]Dusanic!$G$7:$G$50)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G40" s="8">
         <f>SUMIF([3]Huber!$H$7:$H$50,$A40,[3]Huber!$G$7:$G$50)</f>
@@ -5250,14 +5250,14 @@
       </c>
       <c r="J40" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K40" s="9">
         <f t="shared" si="1"/>
-        <v>-50</v>
+        <v>-47</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="15" t="s">
         <v>15</v>
       </c>
@@ -5273,7 +5273,7 @@
       </c>
       <c r="F41" s="14">
         <f t="shared" ref="F41:J41" si="4">SUM(F26:F40)</f>
-        <v>105.25</v>
+        <v>108.25</v>
       </c>
       <c r="G41" s="14">
         <f t="shared" si="4"/>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="H41" s="14">
         <f t="shared" si="4"/>
-        <v>73</v>
+        <v>93.25</v>
       </c>
       <c r="I41" s="14">
         <f t="shared" si="4"/>
@@ -5289,49 +5289,49 @@
       </c>
       <c r="J41" s="14">
         <f t="shared" si="4"/>
-        <v>485.25</v>
+        <v>508.5</v>
       </c>
       <c r="K41" s="14">
         <f>SUM(K26:K40)</f>
-        <v>-264.75</v>
+        <v>-241.5</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>23</v>
       </c>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="0" windowWidth="28800" windowHeight="12360"/>
+    <workbookView minimized="1" xWindow="19080" yWindow="0" windowWidth="28800" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -391,7 +391,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -563,19 +562,19 @@
                 <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>112.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>130.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -607,7 +606,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -862,49 +860,49 @@
                 <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>7.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>83</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>129.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -925,11 +923,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1780237104"/>
-        <c:axId val="1780235472"/>
+        <c:axId val="350968544"/>
+        <c:axId val="350964192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1780237104"/>
+        <c:axId val="350968544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,7 +970,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1780235472"/>
+        <c:crossAx val="350964192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -980,7 +978,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1780235472"/>
+        <c:axId val="350964192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,7 +1029,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1780237104"/>
+        <c:crossAx val="350968544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2235,7 +2233,7 @@
         <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F560239F-18FA-4CBB-B83B-E832D6AA06EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F560239F-18FA-4CBB-B83B-E832D6AA06EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2271,7 +2269,7 @@
         <xdr:cNvPr id="4" name="Diagramm 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AEB81ED-2AA8-40DB-9E05-30DB11FA7698}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3AEB81ED-2AA8-40DB-9E05-30DB11FA7698}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2630,58 +2628,58 @@
         </row>
         <row r="48">
           <cell r="G48">
-            <v>0</v>
+            <v>4</v>
           </cell>
           <cell r="H48">
-            <v>1</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="49">
           <cell r="G49">
-            <v>0</v>
+            <v>4</v>
           </cell>
           <cell r="H49">
-            <v>1</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="50">
           <cell r="G50">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="H50">
-            <v>1</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="51">
           <cell r="G51">
-            <v>0</v>
+            <v>3</v>
           </cell>
           <cell r="H51">
-            <v>1</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="52">
           <cell r="G52">
-            <v>0</v>
+            <v>6</v>
           </cell>
           <cell r="H52">
-            <v>1</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="53">
           <cell r="G53">
-            <v>0</v>
+            <v>4.5</v>
           </cell>
           <cell r="H53">
-            <v>1</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="54">
           <cell r="G54">
-            <v>0</v>
+            <v>3.75</v>
           </cell>
           <cell r="H54">
-            <v>1</v>
+            <v>27</v>
           </cell>
         </row>
       </sheetData>
@@ -2940,82 +2938,82 @@
         </row>
         <row r="37">
           <cell r="G37">
-            <v>0</v>
+            <v>5</v>
           </cell>
           <cell r="H37">
-            <v>1</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="38">
           <cell r="G38">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H38">
-            <v>1</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="39">
           <cell r="G39">
-            <v>0</v>
+            <v>2.5</v>
           </cell>
           <cell r="H39">
-            <v>1</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="40">
           <cell r="G40">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="H40">
-            <v>1</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="41">
           <cell r="G41">
-            <v>0</v>
+            <v>5</v>
           </cell>
           <cell r="H41">
-            <v>1</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="42">
           <cell r="G42">
-            <v>0</v>
+            <v>6</v>
           </cell>
           <cell r="H42">
-            <v>1</v>
+            <v>31</v>
           </cell>
         </row>
         <row r="43">
           <cell r="G43">
-            <v>0</v>
+            <v>6</v>
           </cell>
           <cell r="H43">
-            <v>1</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="44">
           <cell r="G44">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="H44">
-            <v>1</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="45">
           <cell r="G45">
-            <v>0</v>
+            <v>3</v>
           </cell>
           <cell r="H45">
-            <v>1</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="46">
           <cell r="G46">
-            <v>0</v>
+            <v>6</v>
           </cell>
           <cell r="H46">
-            <v>1</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="47">
@@ -3266,10 +3264,10 @@
         </row>
         <row r="32">
           <cell r="G32">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="H32">
-            <v>1</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="33">
@@ -3736,50 +3734,50 @@
         </row>
         <row r="45">
           <cell r="G45">
-            <v>0</v>
+            <v>2.25</v>
           </cell>
           <cell r="H45">
-            <v>1</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="46">
           <cell r="G46">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="H46">
-            <v>1</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="47">
           <cell r="G47">
-            <v>0</v>
+            <v>1.5</v>
           </cell>
           <cell r="H47">
-            <v>1</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="48">
           <cell r="G48">
-            <v>0</v>
+            <v>3</v>
           </cell>
           <cell r="H48">
-            <v>1</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="49">
           <cell r="G49">
-            <v>0</v>
+            <v>1.75</v>
           </cell>
           <cell r="H49">
-            <v>1</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="50">
           <cell r="G50">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="H50">
-            <v>1</v>
+            <v>27</v>
           </cell>
         </row>
       </sheetData>
@@ -4070,34 +4068,34 @@
         </row>
         <row r="41">
           <cell r="G41">
-            <v>0</v>
+            <v>5</v>
           </cell>
           <cell r="H41">
-            <v>1</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="42">
           <cell r="G42">
-            <v>0</v>
+            <v>6</v>
           </cell>
           <cell r="H42">
-            <v>1</v>
+            <v>26</v>
           </cell>
         </row>
         <row r="43">
           <cell r="G43">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="H43">
-            <v>1</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="44">
           <cell r="G44">
-            <v>0</v>
+            <v>6</v>
           </cell>
           <cell r="H44">
-            <v>1</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="45">
@@ -4506,25 +4504,25 @@
       <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="A4" s="1" t="e">
         <f>E41</f>
-        <v>112.5</v>
-      </c>
-      <c r="B4" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B4" s="1" t="e">
         <f>F41</f>
-        <v>108.25</v>
-      </c>
-      <c r="C4" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C4" s="1" t="e">
         <f>G41</f>
-        <v>63.75</v>
-      </c>
-      <c r="D4" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D4" s="1" t="e">
         <f>H41</f>
-        <v>93.25</v>
-      </c>
-      <c r="E4" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E4" s="1" t="e">
         <f>I41</f>
-        <v>130.75</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="27"/>
@@ -4612,33 +4610,33 @@
       <c r="D26" s="6">
         <v>50</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="8" t="e">
         <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A26,[1]Aistleithner!$G$7:$G$54)</f>
-        <v>1.75</v>
-      </c>
-      <c r="F26" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F26" s="8" t="e">
         <f>SUMIF([2]Dusanic!$H$7:$H$50,$A26,[2]Dusanic!$G$7:$G$50)</f>
-        <v>1</v>
-      </c>
-      <c r="G26" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G26" s="8" t="e">
         <f>SUMIF([3]Huber!$H$7:$H$50,$A26,[3]Huber!$G$7:$G$50)</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H26" s="8" t="e">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A26,[4]Teuchtmann!$G$7:$G$50)</f>
-        <v>4</v>
-      </c>
-      <c r="I26" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I26" s="8" t="e">
         <f>SUMIF([5]Tomic!$H$7:$H$50,$A26,[5]Tomic!$G$7:$G$50)</f>
-        <v>1</v>
-      </c>
-      <c r="J26" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J26" s="8" t="e">
         <f>SUM(E26:I26)</f>
-        <v>7.75</v>
-      </c>
-      <c r="K26" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K26" s="9" t="e">
         <f>J26-D26</f>
-        <v>-42.25</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -4656,33 +4654,33 @@
       <c r="D27" s="6">
         <v>50</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="8" t="e">
         <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A27,[1]Aistleithner!$G$7:$G$54)</f>
-        <v>4.25</v>
-      </c>
-      <c r="F27" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F27" s="8" t="e">
         <f>SUMIF([2]Dusanic!$H$7:$H$50,$A27,[2]Dusanic!$G$7:$G$50)</f>
-        <v>2.75</v>
-      </c>
-      <c r="G27" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G27" s="8" t="e">
         <f>SUMIF([3]Huber!$H$7:$H$50,$A27,[3]Huber!$G$7:$G$50)</f>
-        <v>3.75</v>
-      </c>
-      <c r="H27" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H27" s="8" t="e">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A27,[4]Teuchtmann!$G$7:$G$50)</f>
-        <v>4.25</v>
-      </c>
-      <c r="I27" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I27" s="8" t="e">
         <f>SUMIF([5]Tomic!$H$7:$H$50,$A27,[5]Tomic!$G$7:$G$50)</f>
-        <v>2.75</v>
-      </c>
-      <c r="J27" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J27" s="8" t="e">
         <f t="shared" ref="J27:J40" si="0">SUM(E27:I27)</f>
-        <v>17.75</v>
-      </c>
-      <c r="K27" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K27" s="9" t="e">
         <f t="shared" ref="K27:K40" si="1">J27-D27</f>
-        <v>-32.25</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -4700,33 +4698,33 @@
       <c r="D28" s="6">
         <v>50</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="8" t="e">
         <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A28,[1]Aistleithner!$G$7:$G$54)</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F28" s="8" t="e">
         <f>SUMIF([2]Dusanic!$H$7:$H$50,$A28,[2]Dusanic!$G$7:$G$50)</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G28" s="8" t="e">
         <f>SUMIF([3]Huber!$H$7:$H$50,$A28,[3]Huber!$G$7:$G$50)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H28" s="8" t="e">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A28,[4]Teuchtmann!$G$7:$G$50)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I28" s="8" t="e">
         <f>SUMIF([5]Tomic!$H$7:$H$50,$A28,[5]Tomic!$G$7:$G$50)</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J28" s="8" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K28" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>-50</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -4744,33 +4742,33 @@
       <c r="D29" s="6">
         <v>50</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="8" t="e">
         <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A29,[1]Aistleithner!$G$7:$G$54)</f>
-        <v>3</v>
-      </c>
-      <c r="F29" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F29" s="8" t="e">
         <f>SUMIF([2]Dusanic!$H$7:$H$50,$A29,[2]Dusanic!$G$7:$G$50)</f>
-        <v>8</v>
-      </c>
-      <c r="G29" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G29" s="8" t="e">
         <f>SUMIF([3]Huber!$H$7:$H$50,$A29,[3]Huber!$G$7:$G$50)</f>
-        <v>1.5</v>
-      </c>
-      <c r="H29" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H29" s="8" t="e">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A29,[4]Teuchtmann!$G$7:$G$50)</f>
-        <v>1.75</v>
-      </c>
-      <c r="I29" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I29" s="8" t="e">
         <f>SUMIF([5]Tomic!$H$7:$H$50,$A29,[5]Tomic!$G$7:$G$50)</f>
-        <v>8</v>
-      </c>
-      <c r="J29" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J29" s="8" t="e">
         <f t="shared" si="0"/>
-        <v>22.25</v>
-      </c>
-      <c r="K29" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K29" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>-27.75</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -4788,33 +4786,33 @@
       <c r="D30" s="6">
         <v>50</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="8" t="e">
         <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A30,[1]Aistleithner!$G$7:$G$54)</f>
-        <v>17</v>
-      </c>
-      <c r="F30" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F30" s="8" t="e">
         <f>SUMIF([2]Dusanic!$H$7:$H$50,$A30,[2]Dusanic!$G$7:$G$50)</f>
-        <v>18.75</v>
-      </c>
-      <c r="G30" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G30" s="8" t="e">
         <f>SUMIF([3]Huber!$H$7:$H$50,$A30,[3]Huber!$G$7:$G$50)</f>
-        <v>6</v>
-      </c>
-      <c r="H30" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H30" s="8" t="e">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A30,[4]Teuchtmann!$G$7:$G$50)</f>
-        <v>9.25</v>
-      </c>
-      <c r="I30" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I30" s="8" t="e">
         <f>SUMIF([5]Tomic!$H$7:$H$50,$A30,[5]Tomic!$G$7:$G$50)</f>
-        <v>21.75</v>
-      </c>
-      <c r="J30" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J30" s="8" t="e">
         <f t="shared" si="0"/>
-        <v>72.75</v>
-      </c>
-      <c r="K30" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K30" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>22.75</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -4832,33 +4830,33 @@
       <c r="D31" s="6">
         <v>50</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="8" t="e">
         <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A31,[1]Aistleithner!$G$7:$G$54)</f>
-        <v>7</v>
-      </c>
-      <c r="F31" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F31" s="8" t="e">
         <f>SUMIF([2]Dusanic!$H$7:$H$50,$A31,[2]Dusanic!$G$7:$G$50)</f>
-        <v>3.5</v>
-      </c>
-      <c r="G31" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G31" s="8" t="e">
         <f>SUMIF([3]Huber!$H$7:$H$50,$A31,[3]Huber!$G$7:$G$50)</f>
-        <v>7.25</v>
-      </c>
-      <c r="H31" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H31" s="8" t="e">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A31,[4]Teuchtmann!$G$7:$G$50)</f>
-        <v>5.5</v>
-      </c>
-      <c r="I31" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I31" s="8" t="e">
         <f>SUMIF([5]Tomic!$H$7:$H$50,$A31,[5]Tomic!$G$7:$G$50)</f>
-        <v>3.5</v>
-      </c>
-      <c r="J31" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J31" s="8" t="e">
         <f t="shared" si="0"/>
-        <v>26.75</v>
-      </c>
-      <c r="K31" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K31" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>-23.25</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -4876,33 +4874,33 @@
       <c r="D32" s="6">
         <v>50</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="8" t="e">
         <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A32,[1]Aistleithner!$G$7:$G$54)</f>
-        <v>3</v>
-      </c>
-      <c r="F32" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F32" s="8" t="e">
         <f>SUMIF([2]Dusanic!$H$7:$H$50,$A32,[2]Dusanic!$G$7:$G$50)</f>
-        <v>3</v>
-      </c>
-      <c r="G32" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G32" s="8" t="e">
         <f>SUMIF([3]Huber!$H$7:$H$50,$A32,[3]Huber!$G$7:$G$50)</f>
-        <v>3</v>
-      </c>
-      <c r="H32" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H32" s="8" t="e">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A32,[4]Teuchtmann!$G$7:$G$50)</f>
-        <v>3</v>
-      </c>
-      <c r="I32" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I32" s="8" t="e">
         <f>SUMIF([5]Tomic!$H$7:$H$50,$A32,[5]Tomic!$G$7:$G$50)</f>
-        <v>3</v>
-      </c>
-      <c r="J32" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J32" s="8" t="e">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="K32" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K32" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>-35</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
@@ -4920,33 +4918,33 @@
       <c r="D33" s="6">
         <v>50</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="8" t="e">
         <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A33,[1]Aistleithner!$G$7:$G$54)</f>
-        <v>12.5</v>
-      </c>
-      <c r="F33" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F33" s="8" t="e">
         <f>SUMIF([2]Dusanic!$H$7:$H$50,$A33,[2]Dusanic!$G$7:$G$50)</f>
-        <v>20.25</v>
-      </c>
-      <c r="G33" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G33" s="8" t="e">
         <f>SUMIF([3]Huber!$H$7:$H$50,$A33,[3]Huber!$G$7:$G$50)</f>
-        <v>4.25</v>
-      </c>
-      <c r="H33" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H33" s="8" t="e">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A33,[4]Teuchtmann!$G$7:$G$50)</f>
-        <v>9</v>
-      </c>
-      <c r="I33" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I33" s="8" t="e">
         <f>SUMIF([5]Tomic!$H$7:$H$50,$A33,[5]Tomic!$G$7:$G$50)</f>
-        <v>10.25</v>
-      </c>
-      <c r="J33" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J33" s="8" t="e">
         <f t="shared" si="0"/>
-        <v>56.25</v>
-      </c>
-      <c r="K33" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K33" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -4964,33 +4962,33 @@
       <c r="D34" s="6">
         <v>50</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="8" t="e">
         <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A34,[1]Aistleithner!$G$7:$G$54)</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F34" s="8" t="e">
         <f>SUMIF([2]Dusanic!$H$7:$H$50,$A34,[2]Dusanic!$G$7:$G$50)</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G34" s="8" t="e">
         <f>SUMIF([3]Huber!$H$7:$H$50,$A34,[3]Huber!$G$7:$G$50)</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H34" s="8" t="e">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A34,[4]Teuchtmann!$G$7:$G$50)</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I34" s="8" t="e">
         <f>SUMIF([5]Tomic!$H$7:$H$50,$A34,[5]Tomic!$G$7:$G$50)</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J34" s="8" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K34" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>-50</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
@@ -5008,33 +5006,33 @@
       <c r="D35" s="6">
         <v>50</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="8" t="e">
         <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A35,[1]Aistleithner!$G$7:$G$54)</f>
-        <v>17.5</v>
-      </c>
-      <c r="F35" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F35" s="8" t="e">
         <f>SUMIF([2]Dusanic!$H$7:$H$50,$A35,[2]Dusanic!$G$7:$G$50)</f>
-        <v>24</v>
-      </c>
-      <c r="G35" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G35" s="8" t="e">
         <f>SUMIF([3]Huber!$H$7:$H$50,$A35,[3]Huber!$G$7:$G$50)</f>
-        <v>4</v>
-      </c>
-      <c r="H35" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H35" s="8" t="e">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A35,[4]Teuchtmann!$G$7:$G$50)</f>
-        <v>13.5</v>
-      </c>
-      <c r="I35" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I35" s="8" t="e">
         <f>SUMIF([5]Tomic!$H$7:$H$50,$A35,[5]Tomic!$G$7:$G$50)</f>
-        <v>24</v>
-      </c>
-      <c r="J35" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J35" s="8" t="e">
         <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-      <c r="K35" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K35" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
@@ -5052,33 +5050,33 @@
       <c r="D36" s="6">
         <v>50</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="8" t="e">
         <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A36,[1]Aistleithner!$G$7:$G$54)</f>
-        <v>30.5</v>
-      </c>
-      <c r="F36" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F36" s="8" t="e">
         <f>SUMIF([2]Dusanic!$H$7:$H$50,$A36,[2]Dusanic!$G$7:$G$50)</f>
-        <v>19</v>
-      </c>
-      <c r="G36" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G36" s="8" t="e">
         <f>SUMIF([3]Huber!$H$7:$H$50,$A36,[3]Huber!$G$7:$G$50)</f>
-        <v>18</v>
-      </c>
-      <c r="H36" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H36" s="8" t="e">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A36,[4]Teuchtmann!$G$7:$G$50)</f>
-        <v>16.25</v>
-      </c>
-      <c r="I36" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I36" s="8" t="e">
         <f>SUMIF([5]Tomic!$H$7:$H$50,$A36,[5]Tomic!$G$7:$G$50)</f>
-        <v>45.5</v>
-      </c>
-      <c r="J36" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J36" s="8" t="e">
         <f t="shared" si="0"/>
-        <v>129.25</v>
-      </c>
-      <c r="K36" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K36" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>79.25</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -5096,33 +5094,33 @@
       <c r="D37" s="6">
         <v>50</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="8" t="e">
         <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A37,[1]Aistleithner!$G$7:$G$54)</f>
-        <v>12</v>
-      </c>
-      <c r="F37" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F37" s="8" t="e">
         <f>SUMIF([2]Dusanic!$H$7:$H$50,$A37,[2]Dusanic!$G$7:$G$50)</f>
-        <v>1</v>
-      </c>
-      <c r="G37" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G37" s="8" t="e">
         <f>SUMIF([3]Huber!$H$7:$H$50,$A37,[3]Huber!$G$7:$G$50)</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H37" s="8" t="e">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A37,[4]Teuchtmann!$G$7:$G$50)</f>
-        <v>2.5</v>
-      </c>
-      <c r="I37" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I37" s="8" t="e">
         <f>SUMIF([5]Tomic!$H$7:$H$50,$A37,[5]Tomic!$G$7:$G$50)</f>
-        <v>7</v>
-      </c>
-      <c r="J37" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J37" s="8" t="e">
         <f t="shared" si="0"/>
-        <v>22.5</v>
-      </c>
-      <c r="K37" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K37" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>-27.5</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -5140,33 +5138,33 @@
       <c r="D38" s="6">
         <v>50</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="8" t="e">
         <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A38,[1]Aistleithner!$G$7:$G$54)</f>
-        <v>4</v>
-      </c>
-      <c r="F38" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F38" s="8" t="e">
         <f>SUMIF([2]Dusanic!$H$7:$H$50,$A38,[2]Dusanic!$G$7:$G$50)</f>
-        <v>4</v>
-      </c>
-      <c r="G38" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G38" s="8" t="e">
         <f>SUMIF([3]Huber!$H$7:$H$50,$A38,[3]Huber!$G$7:$G$50)</f>
-        <v>16</v>
-      </c>
-      <c r="H38" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H38" s="8" t="e">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A38,[4]Teuchtmann!$G$7:$G$50)</f>
-        <v>4</v>
-      </c>
-      <c r="I38" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I38" s="8" t="e">
         <f>SUMIF([5]Tomic!$H$7:$H$50,$A38,[5]Tomic!$G$7:$G$50)</f>
-        <v>4</v>
-      </c>
-      <c r="J38" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J38" s="8" t="e">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="K38" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K38" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>-18</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
@@ -5184,33 +5182,33 @@
       <c r="D39" s="6">
         <v>50</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="8" t="e">
         <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A39,[1]Aistleithner!$G$7:$G$54)</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F39" s="8" t="e">
         <f>SUMIF([2]Dusanic!$H$7:$H$50,$A39,[2]Dusanic!$G$7:$G$50)</f>
-        <v>0</v>
-      </c>
-      <c r="G39" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G39" s="8" t="e">
         <f>SUMIF([3]Huber!$H$7:$H$50,$A39,[3]Huber!$G$7:$G$50)</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H39" s="8" t="e">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A39,[4]Teuchtmann!$G$7:$G$50)</f>
-        <v>20.25</v>
-      </c>
-      <c r="I39" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I39" s="8" t="e">
         <f>SUMIF([5]Tomic!$H$7:$H$50,$A39,[5]Tomic!$G$7:$G$50)</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J39" s="8" t="e">
         <f t="shared" si="0"/>
-        <v>20.25</v>
-      </c>
-      <c r="K39" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K39" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>-29.75</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
@@ -5228,33 +5226,33 @@
       <c r="D40" s="10">
         <v>50</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="8" t="e">
         <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A40,[1]Aistleithner!$G$7:$G$54)</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F40" s="8" t="e">
         <f>SUMIF([2]Dusanic!$H$7:$H$50,$A40,[2]Dusanic!$G$7:$G$50)</f>
-        <v>3</v>
-      </c>
-      <c r="G40" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G40" s="8" t="e">
         <f>SUMIF([3]Huber!$H$7:$H$50,$A40,[3]Huber!$G$7:$G$50)</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H40" s="8" t="e">
         <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A40,[4]Teuchtmann!$G$7:$G$50)</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I40" s="8" t="e">
         <f>SUMIF([5]Tomic!$H$7:$H$50,$A40,[5]Tomic!$G$7:$G$50)</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J40" s="12" t="e">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K40" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K40" s="9" t="e">
         <f t="shared" si="1"/>
-        <v>-47</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -5267,33 +5265,33 @@
         <f>SUM(D26:D40)</f>
         <v>750</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="14" t="e">
         <f>SUM(E26:E40)</f>
-        <v>112.5</v>
-      </c>
-      <c r="F41" s="14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F41" s="14" t="e">
         <f t="shared" ref="F41:J41" si="4">SUM(F26:F40)</f>
-        <v>108.25</v>
-      </c>
-      <c r="G41" s="14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G41" s="14" t="e">
         <f t="shared" si="4"/>
-        <v>63.75</v>
-      </c>
-      <c r="H41" s="14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H41" s="14" t="e">
         <f t="shared" si="4"/>
-        <v>93.25</v>
-      </c>
-      <c r="I41" s="14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I41" s="14" t="e">
         <f t="shared" si="4"/>
-        <v>130.75</v>
-      </c>
-      <c r="J41" s="14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J41" s="14" t="e">
         <f t="shared" si="4"/>
-        <v>508.5</v>
-      </c>
-      <c r="K41" s="14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K41" s="14" t="e">
         <f>SUM(K26:K40)</f>
-        <v>-241.5</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Gesamt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\majad\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="19080" yWindow="0" windowWidth="28800" windowHeight="12360"/>
+    <workbookView xWindow="20010" yWindow="0" windowWidth="28800" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Zeiterfassung_Gesamt" sheetId="1" r:id="rId1"/>
@@ -173,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -240,19 +240,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -262,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -279,15 +266,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -308,7 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -335,8 +313,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -354,7 +332,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -391,6 +369,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -562,19 +541,19 @@
                 <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>140.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>144.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>199.24999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>120.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>153.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -606,6 +585,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -682,7 +662,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -779,10 +759,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Zeiterfassung_Gesamt!$D$26:$D$40</c:f>
+              <c:f>Zeiterfassung_Gesamt!$D$26:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -828,6 +808,15 @@
                 <c:pt idx="14">
                   <c:v>50</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -855,53 +844,62 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Zeiterfassung_Gesamt!$J$26:$J$40</c:f>
+              <c:f>Zeiterfassung_Gesamt!$J$26:$J$43</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>17.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>22.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>72.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>26.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>129.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>49.083333333333329</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>41.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70.166666666666657</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>91.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -923,11 +921,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="350968544"/>
-        <c:axId val="350964192"/>
+        <c:axId val="-2091668224"/>
+        <c:axId val="-2091658976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="350968544"/>
+        <c:axId val="-2091668224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -970,7 +968,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350964192"/>
+        <c:crossAx val="-2091658976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -978,7 +976,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="350964192"/>
+        <c:axId val="-2091658976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1029,7 +1027,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350968544"/>
+        <c:crossAx val="-2091668224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2233,7 +2231,7 @@
         <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F560239F-18FA-4CBB-B83B-E832D6AA06EA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F560239F-18FA-4CBB-B83B-E832D6AA06EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2269,7 +2267,7 @@
         <xdr:cNvPr id="4" name="Diagramm 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3AEB81ED-2AA8-40DB-9E05-30DB11FA7698}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AEB81ED-2AA8-40DB-9E05-30DB11FA7698}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2682,6 +2680,30 @@
             <v>27</v>
           </cell>
         </row>
+        <row r="55">
+          <cell r="G55">
+            <v>0.75</v>
+          </cell>
+          <cell r="H55">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="G56">
+            <v>0</v>
+          </cell>
+          <cell r="H56">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="G57">
+            <v>0</v>
+          </cell>
+          <cell r="H57">
+            <v>1</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -3018,10 +3040,10 @@
         </row>
         <row r="47">
           <cell r="G47">
-            <v>0</v>
+            <v>4</v>
           </cell>
           <cell r="H47">
-            <v>1</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="48">
@@ -3272,145 +3294,273 @@
         </row>
         <row r="33">
           <cell r="G33">
-            <v>0</v>
+            <v>3</v>
           </cell>
           <cell r="H33">
-            <v>1</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="34">
           <cell r="G34">
-            <v>0</v>
+            <v>5</v>
           </cell>
           <cell r="H34">
-            <v>1</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="35">
           <cell r="G35">
-            <v>0</v>
+            <v>6</v>
           </cell>
           <cell r="H35">
-            <v>1</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="36">
           <cell r="G36">
-            <v>0</v>
+            <v>8</v>
           </cell>
           <cell r="H36">
-            <v>1</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="37">
           <cell r="G37">
-            <v>0</v>
+            <v>4.5</v>
           </cell>
           <cell r="H37">
-            <v>1</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="38">
           <cell r="G38">
-            <v>0</v>
+            <v>6</v>
           </cell>
           <cell r="H38">
-            <v>1</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="39">
           <cell r="G39">
-            <v>0</v>
+            <v>2.3333333333333321</v>
           </cell>
           <cell r="H39">
-            <v>1</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="40">
           <cell r="G40">
-            <v>0</v>
+            <v>4.25</v>
           </cell>
           <cell r="H40">
-            <v>1</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="41">
           <cell r="G41">
-            <v>0</v>
+            <v>2.25</v>
           </cell>
           <cell r="H41">
-            <v>1</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="42">
           <cell r="G42">
-            <v>0</v>
+            <v>4</v>
           </cell>
           <cell r="H42">
-            <v>1</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="43">
           <cell r="G43">
-            <v>0</v>
+            <v>5.5</v>
           </cell>
           <cell r="H43">
-            <v>1</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="44">
           <cell r="G44">
-            <v>0</v>
+            <v>4</v>
           </cell>
           <cell r="H44">
-            <v>1</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="45">
           <cell r="G45">
-            <v>0</v>
+            <v>5.75</v>
           </cell>
           <cell r="H45">
-            <v>1</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="46">
           <cell r="G46">
-            <v>0</v>
+            <v>5.25</v>
           </cell>
           <cell r="H46">
-            <v>1</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="47">
           <cell r="G47">
-            <v>0</v>
+            <v>2.25</v>
           </cell>
           <cell r="H47">
-            <v>1</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="48">
           <cell r="G48">
-            <v>0</v>
+            <v>2.75</v>
           </cell>
           <cell r="H48">
-            <v>1</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="49">
           <cell r="G49">
-            <v>0</v>
+            <v>8</v>
           </cell>
           <cell r="H49">
-            <v>1</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="50">
           <cell r="G50">
+            <v>7</v>
+          </cell>
+          <cell r="H50">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="G51">
+            <v>4</v>
+          </cell>
+          <cell r="H51">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="G52">
+            <v>6.4166666666666643</v>
+          </cell>
+          <cell r="H52">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="G53">
+            <v>4.5</v>
+          </cell>
+          <cell r="H53">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="G54">
+            <v>1.75</v>
+          </cell>
+          <cell r="H54">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="G55">
+            <v>7.5</v>
+          </cell>
+          <cell r="H55">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="G56">
+            <v>7.5</v>
+          </cell>
+          <cell r="H56">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="G57">
+            <v>6.25</v>
+          </cell>
+          <cell r="H57">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="G58">
+            <v>5.75</v>
+          </cell>
+          <cell r="H58">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="G59">
+            <v>4</v>
+          </cell>
+          <cell r="H59">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="G60">
             <v>0</v>
           </cell>
-          <cell r="H50">
+          <cell r="H60">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="G61">
+            <v>0</v>
+          </cell>
+          <cell r="H61">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="G62">
+            <v>0</v>
+          </cell>
+          <cell r="H62">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="G63">
+            <v>0</v>
+          </cell>
+          <cell r="H63">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="G64">
+            <v>0</v>
+          </cell>
+          <cell r="H64">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="G65">
+            <v>0</v>
+          </cell>
+          <cell r="H65">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="G66">
+            <v>0</v>
+          </cell>
+          <cell r="H66">
             <v>1</v>
           </cell>
         </row>
@@ -3780,6 +3930,62 @@
             <v>27</v>
           </cell>
         </row>
+        <row r="51">
+          <cell r="G51">
+            <v>3</v>
+          </cell>
+          <cell r="H51">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="G52">
+            <v>2</v>
+          </cell>
+          <cell r="H52">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="G53">
+            <v>5</v>
+          </cell>
+          <cell r="H53">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="G54">
+            <v>5</v>
+          </cell>
+          <cell r="H54">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="G55">
+            <v>0</v>
+          </cell>
+          <cell r="H55">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="G56">
+            <v>0</v>
+          </cell>
+          <cell r="H56">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="G57">
+            <v>0</v>
+          </cell>
+          <cell r="H57">
+            <v>1</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -4100,10 +4306,10 @@
         </row>
         <row r="45">
           <cell r="G45">
-            <v>0</v>
+            <v>4</v>
           </cell>
           <cell r="H45">
-            <v>1</v>
+            <v>27</v>
           </cell>
         </row>
         <row r="46">
@@ -4449,155 +4655,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K51"/>
+  <dimension ref="A2:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" customWidth="1"/>
-    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.54296875" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="G2" s="27" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="G2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="e">
-        <f>E41</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B4" s="1" t="e">
-        <f>F41</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C4" s="1" t="e">
-        <f>G41</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D4" s="1" t="e">
-        <f>H41</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E4" s="1" t="e">
-        <f>I41</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f>E44</f>
+        <v>140.5</v>
+      </c>
+      <c r="B4" s="1">
+        <f>F44</f>
+        <v>144.75</v>
+      </c>
+      <c r="C4" s="1">
+        <f>G44</f>
+        <v>199.24999999999997</v>
+      </c>
+      <c r="D4" s="1">
+        <f>H44</f>
+        <v>120.75</v>
+      </c>
+      <c r="E4" s="1">
+        <f>I44</f>
+        <v>153.75</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="24" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="26"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="23"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="23"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="20"/>
       <c r="J24" s="4"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="17" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="17" t="s">
+      <c r="C25" s="17"/>
+      <c r="D25" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="17" t="s">
+      <c r="H25" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I25" s="17" t="s">
+      <c r="I25" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J25" s="18" t="s">
+      <c r="J25" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="K25" s="17" t="s">
+      <c r="K25" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>11</v>
       </c>
@@ -4610,36 +4816,36 @@
       <c r="D26" s="6">
         <v>50</v>
       </c>
-      <c r="E26" s="8" t="e">
-        <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A26,[1]Aistleithner!$G$7:$G$54)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F26" s="8" t="e">
+      <c r="E26" s="8">
+        <f>SUMIF([1]Aistleithner!$H$7:$H$57,$A26,[1]Aistleithner!$G$7:$G$57)</f>
+        <v>1.75</v>
+      </c>
+      <c r="F26" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$50,$A26,[2]Dusanic!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G26" s="8" t="e">
-        <f>SUMIF([3]Huber!$H$7:$H$50,$A26,[3]Huber!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H26" s="8" t="e">
-        <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A26,[4]Teuchtmann!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I26" s="8" t="e">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8">
+        <f>SUMIF([3]Huber!$H$7:$H$66,$A26,[3]Huber!$G$7:$G$66)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="8">
+        <f>SUMIF([4]Teuchtmann!$H$7:$H$57,$A26,[4]Teuchtmann!$G$7:$G$57)</f>
+        <v>4</v>
+      </c>
+      <c r="I26" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$50,$A26,[5]Tomic!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J26" s="8" t="e">
+        <v>1</v>
+      </c>
+      <c r="J26" s="8">
         <f>SUM(E26:I26)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K26" s="9" t="e">
+        <v>7.75</v>
+      </c>
+      <c r="K26" s="9">
         <f>J26-D26</f>
-        <v>#VALUE!</v>
+        <v>-42.25</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>12</v>
       </c>
@@ -4654,80 +4860,80 @@
       <c r="D27" s="6">
         <v>50</v>
       </c>
-      <c r="E27" s="8" t="e">
-        <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A27,[1]Aistleithner!$G$7:$G$54)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F27" s="8" t="e">
+      <c r="E27" s="8">
+        <f>SUMIF([1]Aistleithner!$H$7:$H$57,$A27,[1]Aistleithner!$G$7:$G$57)</f>
+        <v>4.25</v>
+      </c>
+      <c r="F27" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$50,$A27,[2]Dusanic!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G27" s="8" t="e">
-        <f>SUMIF([3]Huber!$H$7:$H$50,$A27,[3]Huber!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H27" s="8" t="e">
-        <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A27,[4]Teuchtmann!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I27" s="8" t="e">
+        <v>2.75</v>
+      </c>
+      <c r="G27" s="8">
+        <f>SUMIF([3]Huber!$H$7:$H$66,$A27,[3]Huber!$G$7:$G$66)</f>
+        <v>3.75</v>
+      </c>
+      <c r="H27" s="8">
+        <f>SUMIF([4]Teuchtmann!$H$7:$H$57,$A27,[4]Teuchtmann!$G$7:$G$57)</f>
+        <v>4.25</v>
+      </c>
+      <c r="I27" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$50,$A27,[5]Tomic!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J27" s="8" t="e">
-        <f t="shared" ref="J27:J40" si="0">SUM(E27:I27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K27" s="9" t="e">
-        <f t="shared" ref="K27:K40" si="1">J27-D27</f>
-        <v>#VALUE!</v>
+        <v>2.75</v>
+      </c>
+      <c r="J27" s="8">
+        <f t="shared" ref="J27:J43" si="0">SUM(E27:I27)</f>
+        <v>17.75</v>
+      </c>
+      <c r="K27" s="9">
+        <f t="shared" ref="K27:K43" si="1">J27-D27</f>
+        <v>-32.25</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>13</v>
       </c>
       <c r="B28" s="7">
-        <f t="shared" ref="B28:B40" si="2">B27+7</f>
+        <f t="shared" ref="B28:B43" si="2">B27+7</f>
         <v>43185</v>
       </c>
       <c r="C28" s="7">
-        <f t="shared" ref="C28:C40" si="3">C27+7</f>
+        <f t="shared" ref="C28:C43" si="3">C27+7</f>
         <v>43191</v>
       </c>
       <c r="D28" s="6">
         <v>50</v>
       </c>
-      <c r="E28" s="8" t="e">
-        <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A28,[1]Aistleithner!$G$7:$G$54)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F28" s="8" t="e">
+      <c r="E28" s="8">
+        <f>SUMIF([1]Aistleithner!$H$7:$H$57,$A28,[1]Aistleithner!$G$7:$G$57)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$50,$A28,[2]Dusanic!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G28" s="8" t="e">
-        <f>SUMIF([3]Huber!$H$7:$H$50,$A28,[3]Huber!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H28" s="8" t="e">
-        <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A28,[4]Teuchtmann!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I28" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <f>SUMIF([3]Huber!$H$7:$H$66,$A28,[3]Huber!$G$7:$G$66)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="8">
+        <f>SUMIF([4]Teuchtmann!$H$7:$H$57,$A28,[4]Teuchtmann!$G$7:$G$57)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$50,$A28,[5]Tomic!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J28" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="J28" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K28" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="K28" s="9">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-50</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>14</v>
       </c>
@@ -4742,36 +4948,36 @@
       <c r="D29" s="6">
         <v>50</v>
       </c>
-      <c r="E29" s="8" t="e">
-        <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A29,[1]Aistleithner!$G$7:$G$54)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F29" s="8" t="e">
+      <c r="E29" s="8">
+        <f>SUMIF([1]Aistleithner!$H$7:$H$57,$A29,[1]Aistleithner!$G$7:$G$57)</f>
+        <v>3</v>
+      </c>
+      <c r="F29" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$50,$A29,[2]Dusanic!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G29" s="8" t="e">
-        <f>SUMIF([3]Huber!$H$7:$H$50,$A29,[3]Huber!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H29" s="8" t="e">
-        <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A29,[4]Teuchtmann!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I29" s="8" t="e">
+        <v>8</v>
+      </c>
+      <c r="G29" s="8">
+        <f>SUMIF([3]Huber!$H$7:$H$66,$A29,[3]Huber!$G$7:$G$66)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H29" s="8">
+        <f>SUMIF([4]Teuchtmann!$H$7:$H$57,$A29,[4]Teuchtmann!$G$7:$G$57)</f>
+        <v>1.75</v>
+      </c>
+      <c r="I29" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$50,$A29,[5]Tomic!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J29" s="8" t="e">
+        <v>8</v>
+      </c>
+      <c r="J29" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K29" s="9" t="e">
+        <v>22.25</v>
+      </c>
+      <c r="K29" s="9">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-27.75</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>15</v>
       </c>
@@ -4786,36 +4992,36 @@
       <c r="D30" s="6">
         <v>50</v>
       </c>
-      <c r="E30" s="8" t="e">
-        <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A30,[1]Aistleithner!$G$7:$G$54)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F30" s="8" t="e">
+      <c r="E30" s="8">
+        <f>SUMIF([1]Aistleithner!$H$7:$H$57,$A30,[1]Aistleithner!$G$7:$G$57)</f>
+        <v>17</v>
+      </c>
+      <c r="F30" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$50,$A30,[2]Dusanic!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G30" s="8" t="e">
-        <f>SUMIF([3]Huber!$H$7:$H$50,$A30,[3]Huber!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H30" s="8" t="e">
-        <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A30,[4]Teuchtmann!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I30" s="8" t="e">
+        <v>18.75</v>
+      </c>
+      <c r="G30" s="8">
+        <f>SUMIF([3]Huber!$H$7:$H$66,$A30,[3]Huber!$G$7:$G$66)</f>
+        <v>6</v>
+      </c>
+      <c r="H30" s="8">
+        <f>SUMIF([4]Teuchtmann!$H$7:$H$57,$A30,[4]Teuchtmann!$G$7:$G$57)</f>
+        <v>9.25</v>
+      </c>
+      <c r="I30" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$50,$A30,[5]Tomic!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J30" s="8" t="e">
+        <v>21.75</v>
+      </c>
+      <c r="J30" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K30" s="9" t="e">
+        <v>72.75</v>
+      </c>
+      <c r="K30" s="9">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>22.75</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>16</v>
       </c>
@@ -4830,36 +5036,36 @@
       <c r="D31" s="6">
         <v>50</v>
       </c>
-      <c r="E31" s="8" t="e">
-        <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A31,[1]Aistleithner!$G$7:$G$54)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F31" s="8" t="e">
+      <c r="E31" s="8">
+        <f>SUMIF([1]Aistleithner!$H$7:$H$57,$A31,[1]Aistleithner!$G$7:$G$57)</f>
+        <v>7</v>
+      </c>
+      <c r="F31" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$50,$A31,[2]Dusanic!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G31" s="8" t="e">
-        <f>SUMIF([3]Huber!$H$7:$H$50,$A31,[3]Huber!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H31" s="8" t="e">
-        <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A31,[4]Teuchtmann!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I31" s="8" t="e">
+        <v>3.5</v>
+      </c>
+      <c r="G31" s="8">
+        <f>SUMIF([3]Huber!$H$7:$H$66,$A31,[3]Huber!$G$7:$G$66)</f>
+        <v>7.25</v>
+      </c>
+      <c r="H31" s="8">
+        <f>SUMIF([4]Teuchtmann!$H$7:$H$57,$A31,[4]Teuchtmann!$G$7:$G$57)</f>
+        <v>5.5</v>
+      </c>
+      <c r="I31" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$50,$A31,[5]Tomic!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J31" s="8" t="e">
+        <v>3.5</v>
+      </c>
+      <c r="J31" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K31" s="9" t="e">
+        <v>26.75</v>
+      </c>
+      <c r="K31" s="9">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-23.25</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>17</v>
       </c>
@@ -4874,36 +5080,36 @@
       <c r="D32" s="6">
         <v>50</v>
       </c>
-      <c r="E32" s="8" t="e">
-        <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A32,[1]Aistleithner!$G$7:$G$54)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F32" s="8" t="e">
+      <c r="E32" s="8">
+        <f>SUMIF([1]Aistleithner!$H$7:$H$57,$A32,[1]Aistleithner!$G$7:$G$57)</f>
+        <v>3</v>
+      </c>
+      <c r="F32" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$50,$A32,[2]Dusanic!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G32" s="8" t="e">
-        <f>SUMIF([3]Huber!$H$7:$H$50,$A32,[3]Huber!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H32" s="8" t="e">
-        <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A32,[4]Teuchtmann!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I32" s="8" t="e">
+        <v>3</v>
+      </c>
+      <c r="G32" s="8">
+        <f>SUMIF([3]Huber!$H$7:$H$66,$A32,[3]Huber!$G$7:$G$66)</f>
+        <v>3</v>
+      </c>
+      <c r="H32" s="8">
+        <f>SUMIF([4]Teuchtmann!$H$7:$H$57,$A32,[4]Teuchtmann!$G$7:$G$57)</f>
+        <v>3</v>
+      </c>
+      <c r="I32" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$50,$A32,[5]Tomic!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J32" s="8" t="e">
+        <v>3</v>
+      </c>
+      <c r="J32" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K32" s="9" t="e">
+        <v>15</v>
+      </c>
+      <c r="K32" s="9">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-35</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>18</v>
       </c>
@@ -4918,36 +5124,36 @@
       <c r="D33" s="6">
         <v>50</v>
       </c>
-      <c r="E33" s="8" t="e">
-        <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A33,[1]Aistleithner!$G$7:$G$54)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F33" s="8" t="e">
+      <c r="E33" s="8">
+        <f>SUMIF([1]Aistleithner!$H$7:$H$57,$A33,[1]Aistleithner!$G$7:$G$57)</f>
+        <v>12.5</v>
+      </c>
+      <c r="F33" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$50,$A33,[2]Dusanic!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G33" s="8" t="e">
-        <f>SUMIF([3]Huber!$H$7:$H$50,$A33,[3]Huber!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H33" s="8" t="e">
-        <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A33,[4]Teuchtmann!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I33" s="8" t="e">
+        <v>20.25</v>
+      </c>
+      <c r="G33" s="8">
+        <f>SUMIF([3]Huber!$H$7:$H$66,$A33,[3]Huber!$G$7:$G$66)</f>
+        <v>4.25</v>
+      </c>
+      <c r="H33" s="8">
+        <f>SUMIF([4]Teuchtmann!$H$7:$H$57,$A33,[4]Teuchtmann!$G$7:$G$57)</f>
+        <v>9</v>
+      </c>
+      <c r="I33" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$50,$A33,[5]Tomic!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J33" s="8" t="e">
+        <v>10.25</v>
+      </c>
+      <c r="J33" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K33" s="9" t="e">
+        <v>56.25</v>
+      </c>
+      <c r="K33" s="9">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>6.25</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>19</v>
       </c>
@@ -4962,36 +5168,36 @@
       <c r="D34" s="6">
         <v>50</v>
       </c>
-      <c r="E34" s="8" t="e">
-        <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A34,[1]Aistleithner!$G$7:$G$54)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F34" s="8" t="e">
+      <c r="E34" s="8">
+        <f>SUMIF([1]Aistleithner!$H$7:$H$57,$A34,[1]Aistleithner!$G$7:$G$57)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$50,$A34,[2]Dusanic!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G34" s="8" t="e">
-        <f>SUMIF([3]Huber!$H$7:$H$50,$A34,[3]Huber!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H34" s="8" t="e">
-        <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A34,[4]Teuchtmann!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I34" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="G34" s="8">
+        <f>SUMIF([3]Huber!$H$7:$H$66,$A34,[3]Huber!$G$7:$G$66)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="8">
+        <f>SUMIF([4]Teuchtmann!$H$7:$H$57,$A34,[4]Teuchtmann!$G$7:$G$57)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$50,$A34,[5]Tomic!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J34" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="J34" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K34" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="K34" s="9">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-50</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>20</v>
       </c>
@@ -5006,36 +5212,36 @@
       <c r="D35" s="6">
         <v>50</v>
       </c>
-      <c r="E35" s="8" t="e">
-        <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A35,[1]Aistleithner!$G$7:$G$54)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F35" s="8" t="e">
+      <c r="E35" s="8">
+        <f>SUMIF([1]Aistleithner!$H$7:$H$57,$A35,[1]Aistleithner!$G$7:$G$57)</f>
+        <v>17.5</v>
+      </c>
+      <c r="F35" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$50,$A35,[2]Dusanic!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G35" s="8" t="e">
-        <f>SUMIF([3]Huber!$H$7:$H$50,$A35,[3]Huber!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H35" s="8" t="e">
-        <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A35,[4]Teuchtmann!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I35" s="8" t="e">
+        <v>24</v>
+      </c>
+      <c r="G35" s="8">
+        <f>SUMIF([3]Huber!$H$7:$H$66,$A35,[3]Huber!$G$7:$G$66)</f>
+        <v>4</v>
+      </c>
+      <c r="H35" s="8">
+        <f>SUMIF([4]Teuchtmann!$H$7:$H$57,$A35,[4]Teuchtmann!$G$7:$G$57)</f>
+        <v>13.5</v>
+      </c>
+      <c r="I35" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$50,$A35,[5]Tomic!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J35" s="8" t="e">
+        <v>24</v>
+      </c>
+      <c r="J35" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K35" s="9" t="e">
+        <v>83</v>
+      </c>
+      <c r="K35" s="9">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>21</v>
       </c>
@@ -5050,36 +5256,36 @@
       <c r="D36" s="6">
         <v>50</v>
       </c>
-      <c r="E36" s="8" t="e">
-        <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A36,[1]Aistleithner!$G$7:$G$54)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F36" s="8" t="e">
+      <c r="E36" s="8">
+        <f>SUMIF([1]Aistleithner!$H$7:$H$57,$A36,[1]Aistleithner!$G$7:$G$57)</f>
+        <v>30.5</v>
+      </c>
+      <c r="F36" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$50,$A36,[2]Dusanic!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G36" s="8" t="e">
-        <f>SUMIF([3]Huber!$H$7:$H$50,$A36,[3]Huber!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H36" s="8" t="e">
-        <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A36,[4]Teuchtmann!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I36" s="8" t="e">
+        <v>19</v>
+      </c>
+      <c r="G36" s="8">
+        <f>SUMIF([3]Huber!$H$7:$H$66,$A36,[3]Huber!$G$7:$G$66)</f>
+        <v>18</v>
+      </c>
+      <c r="H36" s="8">
+        <f>SUMIF([4]Teuchtmann!$H$7:$H$57,$A36,[4]Teuchtmann!$G$7:$G$57)</f>
+        <v>16.25</v>
+      </c>
+      <c r="I36" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$50,$A36,[5]Tomic!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J36" s="8" t="e">
+        <v>45.5</v>
+      </c>
+      <c r="J36" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K36" s="9" t="e">
+        <v>129.25</v>
+      </c>
+      <c r="K36" s="9">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>79.25</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>22</v>
       </c>
@@ -5094,36 +5300,36 @@
       <c r="D37" s="6">
         <v>50</v>
       </c>
-      <c r="E37" s="8" t="e">
-        <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A37,[1]Aistleithner!$G$7:$G$54)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F37" s="8" t="e">
+      <c r="E37" s="8">
+        <f>SUMIF([1]Aistleithner!$H$7:$H$57,$A37,[1]Aistleithner!$G$7:$G$57)</f>
+        <v>12</v>
+      </c>
+      <c r="F37" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$50,$A37,[2]Dusanic!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G37" s="8" t="e">
-        <f>SUMIF([3]Huber!$H$7:$H$50,$A37,[3]Huber!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H37" s="8" t="e">
-        <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A37,[4]Teuchtmann!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I37" s="8" t="e">
+        <v>1</v>
+      </c>
+      <c r="G37" s="8">
+        <f>SUMIF([3]Huber!$H$7:$H$66,$A37,[3]Huber!$G$7:$G$66)</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="8">
+        <f>SUMIF([4]Teuchtmann!$H$7:$H$57,$A37,[4]Teuchtmann!$G$7:$G$57)</f>
+        <v>2.5</v>
+      </c>
+      <c r="I37" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$50,$A37,[5]Tomic!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J37" s="8" t="e">
+        <v>7</v>
+      </c>
+      <c r="J37" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K37" s="9" t="e">
+        <v>22.5</v>
+      </c>
+      <c r="K37" s="9">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-27.5</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>23</v>
       </c>
@@ -5138,36 +5344,36 @@
       <c r="D38" s="6">
         <v>50</v>
       </c>
-      <c r="E38" s="8" t="e">
-        <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A38,[1]Aistleithner!$G$7:$G$54)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F38" s="8" t="e">
+      <c r="E38" s="8">
+        <f>SUMIF([1]Aistleithner!$H$7:$H$57,$A38,[1]Aistleithner!$G$7:$G$57)</f>
+        <v>4</v>
+      </c>
+      <c r="F38" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$50,$A38,[2]Dusanic!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G38" s="8" t="e">
-        <f>SUMIF([3]Huber!$H$7:$H$50,$A38,[3]Huber!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H38" s="8" t="e">
-        <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A38,[4]Teuchtmann!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I38" s="8" t="e">
+        <v>4</v>
+      </c>
+      <c r="G38" s="8">
+        <f>SUMIF([3]Huber!$H$7:$H$66,$A38,[3]Huber!$G$7:$G$66)</f>
+        <v>38</v>
+      </c>
+      <c r="H38" s="8">
+        <f>SUMIF([4]Teuchtmann!$H$7:$H$57,$A38,[4]Teuchtmann!$G$7:$G$57)</f>
+        <v>4</v>
+      </c>
+      <c r="I38" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$50,$A38,[5]Tomic!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J38" s="8" t="e">
+        <v>4</v>
+      </c>
+      <c r="J38" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K38" s="9" t="e">
+        <v>54</v>
+      </c>
+      <c r="K38" s="9">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>24</v>
       </c>
@@ -5182,160 +5388,291 @@
       <c r="D39" s="6">
         <v>50</v>
       </c>
-      <c r="E39" s="8" t="e">
-        <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A39,[1]Aistleithner!$G$7:$G$54)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F39" s="8" t="e">
+      <c r="E39" s="8">
+        <f>SUMIF([1]Aistleithner!$H$7:$H$57,$A39,[1]Aistleithner!$G$7:$G$57)</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$50,$A39,[2]Dusanic!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G39" s="8" t="e">
-        <f>SUMIF([3]Huber!$H$7:$H$50,$A39,[3]Huber!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H39" s="8" t="e">
-        <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A39,[4]Teuchtmann!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I39" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="G39" s="8">
+        <f>SUMIF([3]Huber!$H$7:$H$66,$A39,[3]Huber!$G$7:$G$66)</f>
+        <v>28.833333333333332</v>
+      </c>
+      <c r="H39" s="8">
+        <f>SUMIF([4]Teuchtmann!$H$7:$H$57,$A39,[4]Teuchtmann!$G$7:$G$57)</f>
+        <v>20.25</v>
+      </c>
+      <c r="I39" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$50,$A39,[5]Tomic!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J39" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K39" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>0</v>
+      </c>
+      <c r="J39" s="8">
+        <f t="shared" ref="J39:J43" si="4">SUM(E39:I39)</f>
+        <v>49.083333333333329</v>
+      </c>
+      <c r="K39" s="9">
+        <f t="shared" ref="K39:K43" si="5">J39-D39</f>
+        <v>-0.9166666666666714</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="10">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
         <v>25</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="7">
         <f t="shared" si="2"/>
         <v>43269</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="7">
         <f t="shared" si="3"/>
         <v>43275</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="6">
         <v>50</v>
       </c>
-      <c r="E40" s="8" t="e">
-        <f>SUMIF([1]Aistleithner!$H$7:$H$54,$A40,[1]Aistleithner!$G$7:$G$54)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F40" s="8" t="e">
+      <c r="E40" s="8">
+        <f>SUMIF([1]Aistleithner!$H$7:$H$57,$A40,[1]Aistleithner!$G$7:$G$57)</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="8">
         <f>SUMIF([2]Dusanic!$H$7:$H$50,$A40,[2]Dusanic!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G40" s="8" t="e">
-        <f>SUMIF([3]Huber!$H$7:$H$50,$A40,[3]Huber!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H40" s="8" t="e">
-        <f>SUMIF([4]Teuchtmann!$H$7:$H$50,$A40,[4]Teuchtmann!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I40" s="8" t="e">
+        <v>9</v>
+      </c>
+      <c r="G40" s="8">
+        <f>SUMIF([3]Huber!$H$7:$H$66,$A40,[3]Huber!$G$7:$G$66)</f>
+        <v>28</v>
+      </c>
+      <c r="H40" s="8">
+        <f>SUMIF([4]Teuchtmann!$H$7:$H$57,$A40,[4]Teuchtmann!$G$7:$G$57)</f>
+        <v>4.25</v>
+      </c>
+      <c r="I40" s="8">
         <f>SUMIF([5]Tomic!$H$7:$H$50,$A40,[5]Tomic!$G$7:$G$50)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J40" s="12" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K40" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>0</v>
+      </c>
+      <c r="J40" s="8">
+        <f t="shared" si="4"/>
+        <v>41.25</v>
+      </c>
+      <c r="K40" s="9">
+        <f t="shared" si="5"/>
+        <v>-8.75</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="15" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>26</v>
+      </c>
+      <c r="B41" s="7">
+        <f t="shared" si="2"/>
+        <v>43276</v>
+      </c>
+      <c r="C41" s="7">
+        <f t="shared" si="3"/>
+        <v>43282</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0</v>
+      </c>
+      <c r="E41" s="8">
+        <f>SUMIF([1]Aistleithner!$H$7:$H$57,$A41,[1]Aistleithner!$G$7:$G$57)</f>
+        <v>8</v>
+      </c>
+      <c r="F41" s="8">
+        <f>SUMIF([2]Dusanic!$H$7:$H$50,$A41,[2]Dusanic!$G$7:$G$50)</f>
+        <v>15.5</v>
+      </c>
+      <c r="G41" s="8">
+        <f>SUMIF([3]Huber!$H$7:$H$66,$A41,[3]Huber!$G$7:$G$66)</f>
+        <v>31.166666666666664</v>
+      </c>
+      <c r="H41" s="8">
+        <f>SUMIF([4]Teuchtmann!$H$7:$H$57,$A41,[4]Teuchtmann!$G$7:$G$57)</f>
+        <v>4.5</v>
+      </c>
+      <c r="I41" s="8">
+        <f>SUMIF([5]Tomic!$H$7:$H$50,$A41,[5]Tomic!$G$7:$G$50)</f>
+        <v>11</v>
+      </c>
+      <c r="J41" s="8">
+        <f t="shared" si="4"/>
+        <v>70.166666666666657</v>
+      </c>
+      <c r="K41" s="9">
+        <f t="shared" si="5"/>
+        <v>70.166666666666657</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>27</v>
+      </c>
+      <c r="B42" s="7">
+        <f t="shared" si="2"/>
+        <v>43283</v>
+      </c>
+      <c r="C42" s="7">
+        <f t="shared" si="3"/>
+        <v>43289</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0</v>
+      </c>
+      <c r="E42" s="8">
+        <f>SUMIF([1]Aistleithner!$H$7:$H$57,$A42,[1]Aistleithner!$G$7:$G$57)</f>
+        <v>20</v>
+      </c>
+      <c r="F42" s="8">
+        <f>SUMIF([2]Dusanic!$H$7:$H$50,$A42,[2]Dusanic!$G$7:$G$50)</f>
         <v>15</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="13">
-        <f>SUM(D26:D40)</f>
+      <c r="G42" s="8">
+        <f>SUMIF([3]Huber!$H$7:$H$66,$A42,[3]Huber!$G$7:$G$66)</f>
+        <v>25.5</v>
+      </c>
+      <c r="H42" s="8">
+        <f>SUMIF([4]Teuchtmann!$H$7:$H$57,$A42,[4]Teuchtmann!$G$7:$G$57)</f>
+        <v>18.75</v>
+      </c>
+      <c r="I42" s="8">
+        <f>SUMIF([5]Tomic!$H$7:$H$50,$A42,[5]Tomic!$G$7:$G$50)</f>
+        <v>12</v>
+      </c>
+      <c r="J42" s="8">
+        <f t="shared" si="4"/>
+        <v>91.25</v>
+      </c>
+      <c r="K42" s="9">
+        <f t="shared" si="5"/>
+        <v>91.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>28</v>
+      </c>
+      <c r="B43" s="7">
+        <f t="shared" si="2"/>
+        <v>43290</v>
+      </c>
+      <c r="C43" s="7">
+        <f t="shared" si="3"/>
+        <v>43296</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0</v>
+      </c>
+      <c r="E43" s="8">
+        <f>SUMIF([1]Aistleithner!$H$7:$H$57,$A43,[1]Aistleithner!$G$7:$G$57)</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="8">
+        <f>SUMIF([2]Dusanic!$H$7:$H$50,$A43,[2]Dusanic!$G$7:$G$50)</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="8">
+        <f>SUMIF([3]Huber!$H$7:$H$66,$A43,[3]Huber!$G$7:$G$66)</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="8">
+        <f>SUMIF([4]Teuchtmann!$H$7:$H$57,$A43,[4]Teuchtmann!$G$7:$G$57)</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="8">
+        <f>SUMIF([5]Tomic!$H$7:$H$50,$A43,[5]Tomic!$G$7:$G$50)</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="10">
+        <f>SUM(D26:D43)</f>
         <v>750</v>
       </c>
-      <c r="E41" s="14" t="e">
-        <f>SUM(E26:E40)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F41" s="14" t="e">
-        <f t="shared" ref="F41:J41" si="4">SUM(F26:F40)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G41" s="14" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H41" s="14" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I41" s="14" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J41" s="14" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K41" s="14" t="e">
-        <f>SUM(K26:K40)</f>
-        <v>#VALUE!</v>
+      <c r="E44" s="11">
+        <f>SUM(E26:E43)</f>
+        <v>140.5</v>
+      </c>
+      <c r="F44" s="11">
+        <f t="shared" ref="F44:J44" si="6">SUM(F26:F43)</f>
+        <v>144.75</v>
+      </c>
+      <c r="G44" s="11">
+        <f t="shared" si="6"/>
+        <v>199.24999999999997</v>
+      </c>
+      <c r="H44" s="11">
+        <f t="shared" si="6"/>
+        <v>120.75</v>
+      </c>
+      <c r="I44" s="11">
+        <f t="shared" si="6"/>
+        <v>153.75</v>
+      </c>
+      <c r="J44" s="11">
+        <f t="shared" si="6"/>
+        <v>759</v>
+      </c>
+      <c r="K44" s="11">
+        <f>SUM(K26:K43)</f>
+        <v>8.9999999999999716</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="5">
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="E24:I24"/>
